--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -490,19 +490,19 @@
         <v>21000000</v>
       </c>
       <c r="D2" t="n">
-        <v>82760.04437711994</v>
+        <v>82927.52916336917</v>
       </c>
       <c r="E2" t="n">
-        <v>6738130970.06928</v>
+        <v>6787931376.162843</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.954651571863924</v>
+        <v>-1.800994089607436</v>
       </c>
       <c r="G2" t="n">
-        <v>83044.74235883883</v>
+        <v>82979.25552039099</v>
       </c>
       <c r="H2" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="3">
@@ -520,19 +520,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1826.045419021544</v>
+        <v>1833.695986101409</v>
       </c>
       <c r="E3" t="n">
-        <v>5501487637.245388</v>
+        <v>5548289274.7092</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.147815923051545</v>
+        <v>-3.790752072379215</v>
       </c>
       <c r="G3" t="n">
-        <v>1849.313034122267</v>
+        <v>1846.805894832743</v>
       </c>
       <c r="H3" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="4">
@@ -550,19 +550,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.003159884327486</v>
+        <v>1.003285359699285</v>
       </c>
       <c r="E4" t="n">
-        <v>21638531272.97508</v>
+        <v>21803680461.65792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.179622143766819</v>
+        <v>0.175187192831505</v>
       </c>
       <c r="G4" t="n">
-        <v>1.000608313705002</v>
+        <v>1.00057496401654</v>
       </c>
       <c r="H4" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="5">
@@ -580,19 +580,19 @@
         <v>100000000000</v>
       </c>
       <c r="D5" t="n">
-        <v>2.133704038873</v>
+        <v>2.147509659614922</v>
       </c>
       <c r="E5" t="n">
-        <v>1621712633.544061</v>
+        <v>1638145769.172129</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.585144538809004</v>
+        <v>-2.969282930273178</v>
       </c>
       <c r="G5" t="n">
-        <v>2.126768482759352</v>
+        <v>2.123485054649936</v>
       </c>
       <c r="H5" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="6">
@@ -610,19 +610,19 @@
         <v>144006830</v>
       </c>
       <c r="D6" t="n">
-        <v>603.2092953755001</v>
+        <v>605.27236425811</v>
       </c>
       <c r="E6" t="n">
-        <v>315523338.8965769</v>
+        <v>316941868.5504553</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.087979783386078</v>
+        <v>-2.630675894687077</v>
       </c>
       <c r="G6" t="n">
-        <v>606.7164538032188</v>
+        <v>606.1983101043919</v>
       </c>
       <c r="H6" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>124.6129436721944</v>
+        <v>125.2021089351357</v>
       </c>
       <c r="E7" t="n">
-        <v>1297320343.954299</v>
+        <v>1311190636.556914</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.102129215447629</v>
+        <v>-3.604468882237792</v>
       </c>
       <c r="G7" t="n">
-        <v>126.1880406361023</v>
+        <v>125.9657787729132</v>
       </c>
       <c r="H7" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="8">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.000579251593338</v>
+        <v>1.001278456154777</v>
       </c>
       <c r="E8" t="n">
-        <v>3911457565.724144</v>
+        <v>3938548447.226166</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0353966867897044</v>
+        <v>0.100939497354222</v>
       </c>
       <c r="G8" t="n">
-        <v>1.00145120391364</v>
+        <v>1.001476797453904</v>
       </c>
       <c r="H8" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="9">
@@ -700,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1694094083317871</v>
+        <v>0.1703741125665958</v>
       </c>
       <c r="E9" t="n">
-        <v>587431862.6889677</v>
+        <v>594437659.180178</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.583110759757824</v>
+        <v>-6.06862600745446</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1726923547804482</v>
+        <v>0.1722242722826475</v>
       </c>
       <c r="H9" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>45000000000</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6719315847263519</v>
+        <v>0.6745334421358229</v>
       </c>
       <c r="E10" t="n">
-        <v>325216277.4983057</v>
+        <v>327578924.8543985</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.18865294483043</v>
+        <v>-4.954127366025689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6786383343146972</v>
+        <v>0.6776034453413297</v>
       </c>
       <c r="H10" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="11">
@@ -760,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2304069582683168</v>
+        <v>0.2302783259612055</v>
       </c>
       <c r="E11" t="n">
-        <v>283548641.0543944</v>
+        <v>284280223.9630108</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.061319468367403</v>
+        <v>-1.028240849361373</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2336074303263903</v>
+        <v>0.2334863945424018</v>
       </c>
       <c r="H11" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="12">
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1826.631634427173</v>
+        <v>1825.752863667699</v>
       </c>
       <c r="E12" t="n">
-        <v>6970701.536407065</v>
+        <v>6966864.279813101</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.946098383456911</v>
+        <v>-4.03842628894656</v>
       </c>
       <c r="G12" t="n">
-        <v>1857.085591897561</v>
+        <v>1856.600704746712</v>
       </c>
       <c r="H12" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="13">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82160.40858273028</v>
+        <v>82293.00008394162</v>
       </c>
       <c r="E13" t="n">
-        <v>112914807.3429569</v>
+        <v>113069494.8774586</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.453226898889041</v>
+        <v>-2.363385773569916</v>
       </c>
       <c r="G13" t="n">
-        <v>82934.90814972202</v>
+        <v>82858.57567879203</v>
       </c>
       <c r="H13" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="14">
@@ -850,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.655073712576874</v>
+        <v>3.670128622638756</v>
       </c>
       <c r="E14" t="n">
-        <v>89797936.8219194</v>
+        <v>90060417.19794378</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.280354345389253</v>
+        <v>-3.833941653919497</v>
       </c>
       <c r="G14" t="n">
-        <v>3.7269633519303</v>
+        <v>3.718938445881623</v>
       </c>
       <c r="H14" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="15">
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>13.49864936310586</v>
+        <v>13.55766616601435</v>
       </c>
       <c r="E15" t="n">
-        <v>148033444.5081975</v>
+        <v>149729896.9923917</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.574427935687719</v>
+        <v>-5.105524365812474</v>
       </c>
       <c r="G15" t="n">
-        <v>13.77942534745326</v>
+        <v>13.74571805319632</v>
       </c>
       <c r="H15" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="16">
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.581990713056573</v>
+        <v>9.592517627144282</v>
       </c>
       <c r="E16" t="n">
-        <v>5065218.850671666</v>
+        <v>5077252.470146463</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.504257005189039</v>
+        <v>-1.343885281440595</v>
       </c>
       <c r="G16" t="n">
-        <v>9.546560172174159</v>
+        <v>9.546136462148755</v>
       </c>
       <c r="H16" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="17">
@@ -940,19 +940,19 @@
         <v>50001806812</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2665675637621393</v>
+        <v>0.2675161271012842</v>
       </c>
       <c r="E17" t="n">
-        <v>64188286.38827319</v>
+        <v>64409490.96026874</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.219199548340176</v>
+        <v>-2.910396109676125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2679960011734401</v>
+        <v>0.2676030983765726</v>
       </c>
       <c r="H17" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="18">
@@ -970,19 +970,19 @@
         <v>715748719</v>
       </c>
       <c r="D18" t="n">
-        <v>19.55359459533226</v>
+        <v>19.68883789366965</v>
       </c>
       <c r="E18" t="n">
-        <v>129822586.3204629</v>
+        <v>131347962.3695596</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.141941735598029</v>
+        <v>-3.544833516869298</v>
       </c>
       <c r="G18" t="n">
-        <v>19.97315368157841</v>
+        <v>19.93961769465554</v>
       </c>
       <c r="H18" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="19">
@@ -1000,19 +1000,19 @@
         <v>589552695333683</v>
       </c>
       <c r="D19" t="n">
-        <v>1.26499357219e-05</v>
+        <v>1.27072729629e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>86169843.15545613</v>
+        <v>86865024.13982321</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.991596333347339</v>
+        <v>-4.63866863341444</v>
       </c>
       <c r="G19" t="n">
-        <v>1.28018528277e-05</v>
+        <v>1.27713982102e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="20">
@@ -1030,19 +1030,19 @@
         <v>10000000000</v>
       </c>
       <c r="D20" t="n">
-        <v>2.297000399762225</v>
+        <v>2.309062851846233</v>
       </c>
       <c r="E20" t="n">
-        <v>600903513.5160155</v>
+        <v>603811213.5792202</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.632187238565791</v>
+        <v>-8.380111858009318</v>
       </c>
       <c r="G20" t="n">
-        <v>2.372312924769421</v>
+        <v>2.357228397357926</v>
       </c>
       <c r="H20" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="21">
@@ -1060,19 +1060,19 @@
         <v>50000000000</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1717106537448069</v>
+        <v>0.1727124461220426</v>
       </c>
       <c r="E21" t="n">
-        <v>128136656.5223964</v>
+        <v>129297238.4542243</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.886969332377054</v>
+        <v>-5.543462823116546</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1728983354961282</v>
+        <v>0.1726025041526711</v>
       </c>
       <c r="H21" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="22">
@@ -1090,19 +1090,19 @@
         <v>84000000</v>
       </c>
       <c r="D22" t="n">
-        <v>85.33712506630566</v>
+        <v>85.61918210119242</v>
       </c>
       <c r="E22" t="n">
-        <v>202371499.2088674</v>
+        <v>203624267.8348365</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.690864602872835</v>
+        <v>-2.357580805374779</v>
       </c>
       <c r="G22" t="n">
-        <v>86.02107560858659</v>
+        <v>85.94390786870935</v>
       </c>
       <c r="H22" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4.049090198676905</v>
+        <v>4.080725676701681</v>
       </c>
       <c r="E23" t="n">
-        <v>83390845.62582777</v>
+        <v>84990974.29550412</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.405762037050458</v>
+        <v>-4.691757297221193</v>
       </c>
       <c r="G23" t="n">
-        <v>4.123498331093471</v>
+        <v>4.115912367480848</v>
       </c>
       <c r="H23" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1822.142819474041</v>
+        <v>1820.303492719007</v>
       </c>
       <c r="E24" t="n">
-        <v>458907602.7908561</v>
+        <v>458398419.59471</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.23435710821229</v>
+        <v>-4.510485099114457</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>888888888</v>
       </c>
       <c r="D25" t="n">
-        <v>6.237462988846933</v>
+        <v>6.26213749549555</v>
       </c>
       <c r="E25" t="n">
-        <v>31569193.10418135</v>
+        <v>31935081.26858781</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3261219874268728</v>
+        <v>0.2400808515054984</v>
       </c>
       <c r="G25" t="n">
-        <v>6.189777067193133</v>
+        <v>6.187826864389828</v>
       </c>
       <c r="H25" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>21000000</v>
       </c>
       <c r="D26" t="n">
-        <v>302.1037252063375</v>
+        <v>303.4525906130893</v>
       </c>
       <c r="E26" t="n">
-        <v>50145991.22062479</v>
+        <v>50523838.68709208</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.684581706020147</v>
+        <v>-1.534200966876454</v>
       </c>
       <c r="G26" t="n">
-        <v>305.0693074417908</v>
+        <v>304.850549621333</v>
       </c>
       <c r="H26" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.637274702918074</v>
+        <v>4.648244786514637</v>
       </c>
       <c r="E27" t="n">
-        <v>128162231.7914895</v>
+        <v>128223484.9942609</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.099453677840117</v>
+        <v>-4.072911163628737</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>100000000000</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7963881382335473</v>
+        <v>0.7981116800254935</v>
       </c>
       <c r="E28" t="n">
-        <v>94508756.30466755</v>
+        <v>94983084.91939208</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.174852537859113</v>
+        <v>-4.053573362150864</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9996348531409276</v>
+        <v>0.9998210050652018</v>
       </c>
       <c r="E29" t="n">
-        <v>77398585.98155102</v>
+        <v>76516309.83574586</v>
       </c>
       <c r="F29" t="n">
-        <v>0.013150413164148</v>
+        <v>0.0317284179221477</v>
       </c>
       <c r="G29" t="n">
-        <v>0.999348299039692</v>
+        <v>0.999378558561045</v>
       </c>
       <c r="H29" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9996415360319072</v>
+        <v>0.9997036594883386</v>
       </c>
       <c r="E30" t="n">
-        <v>42157230.07586022</v>
+        <v>42153539.50577791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0399017562113137</v>
+        <v>0.0325274575496051</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>1000000000</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7738171619033</v>
+        <v>12.87350087974377</v>
       </c>
       <c r="E31" t="n">
-        <v>20372639.52308211</v>
+        <v>20604134.13641572</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.451758495824202</v>
+        <v>-4.614718057507005</v>
       </c>
       <c r="G31" t="n">
-        <v>12.88370296938075</v>
+        <v>12.85377755483446</v>
       </c>
       <c r="H31" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>216.6459310203402</v>
+        <v>216.5043471615185</v>
       </c>
       <c r="E32" t="n">
-        <v>29343423.26593633</v>
+        <v>29365008.47897424</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1608927974195777</v>
+        <v>-0.2779796124097036</v>
       </c>
       <c r="G32" t="n">
-        <v>216.2504398956469</v>
+        <v>216.1808981338185</v>
       </c>
       <c r="H32" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5.957023212775063</v>
+        <v>5.997394508584185</v>
       </c>
       <c r="E33" t="n">
-        <v>62308366.23531105</v>
+        <v>61876197.04852512</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.115363033295562</v>
+        <v>-3.416881010198233</v>
       </c>
       <c r="G33" t="n">
-        <v>6.072844576788096</v>
+        <v>6.057285326028802</v>
       </c>
       <c r="H33" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.206102070472038</v>
+        <v>5.223393202934701</v>
       </c>
       <c r="E34" t="n">
-        <v>49178999.82395692</v>
+        <v>49438667.37895875</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.463045583427394</v>
+        <v>-6.299126473365803</v>
       </c>
       <c r="G34" t="n">
-        <v>5.357840078210184</v>
+        <v>5.34913778345696</v>
       </c>
       <c r="H34" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.56616655832448</v>
+        <v>2.584789059970015</v>
       </c>
       <c r="E35" t="n">
-        <v>73565751.96209612</v>
+        <v>74241312.14129223</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.173148362971326</v>
+        <v>-5.57141819633397</v>
       </c>
       <c r="G35" t="n">
-        <v>2.63624076837057</v>
+        <v>2.631273174115652</v>
       </c>
       <c r="H35" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>420690000000000</v>
       </c>
       <c r="D36" t="n">
-        <v>7.1694614843e-06</v>
+        <v>7.2019165067e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>322405478.4250872</v>
+        <v>324447816.0335299</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.5531366898791</v>
+        <v>-8.178375055183244</v>
       </c>
       <c r="G36" t="n">
-        <v>7.4507509335e-06</v>
+        <v>7.4251425768e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.18430711928305</v>
+        <v>48.19366959066517</v>
       </c>
       <c r="E37" t="n">
-        <v>2152628.768638705</v>
+        <v>2172852.576908858</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.018904381926386</v>
+        <v>-2.030974933212208</v>
       </c>
       <c r="G37" t="n">
-        <v>48.64497113544613</v>
+        <v>48.22096277802032</v>
       </c>
       <c r="H37" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30263013692</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1039377989195878</v>
+        <v>0.1050054112391722</v>
       </c>
       <c r="E38" t="n">
-        <v>30687296.77431269</v>
+        <v>31308438.81772804</v>
       </c>
       <c r="F38" t="n">
-        <v>2.948178007482119</v>
+        <v>4.407271675063641</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1009154167014576</v>
+        <v>0.1014797713652044</v>
       </c>
       <c r="H38" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>6219316795</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8003969388846803</v>
+        <v>0.80243885417295</v>
       </c>
       <c r="E39" t="n">
-        <v>89110784.78888534</v>
+        <v>89062690.90208563</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.013899707555161</v>
+        <v>-3.878696371064016</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8141420282944772</v>
+        <v>0.812877100848315</v>
       </c>
       <c r="H39" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9985393929047</v>
+        <v>0.9984440841840216</v>
       </c>
       <c r="E40" t="n">
-        <v>1575702421.302977</v>
+        <v>1580817680.88182</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0801736221960067</v>
+        <v>-0.0794863613942713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9986698156804152</v>
+        <v>0.998667843755949</v>
       </c>
       <c r="H40" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.341970798224012</v>
+        <v>5.355358167420772</v>
       </c>
       <c r="E41" t="n">
-        <v>30048534.16580131</v>
+        <v>30285562.28965387</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.041677432508983</v>
+        <v>-4.777911829324881</v>
       </c>
       <c r="G41" t="n">
-        <v>5.416678375289444</v>
+        <v>5.402828778999718</v>
       </c>
       <c r="H41" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="42">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>167.4715235081837</v>
+        <v>168.9382108748585</v>
       </c>
       <c r="E42" t="n">
-        <v>130492580.9391714</v>
+        <v>132152343.37039</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.895071614169458</v>
+        <v>-3.975614576502062</v>
       </c>
       <c r="G42" t="n">
-        <v>173.8869159622273</v>
+        <v>173.3192129933889</v>
       </c>
       <c r="H42" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="43">
@@ -1720,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7960019162448302</v>
+        <v>0.8014353330087522</v>
       </c>
       <c r="E43" t="n">
-        <v>120968245.5405302</v>
+        <v>121732495.5327971</v>
       </c>
       <c r="F43" t="n">
-        <v>-6.057005787335703</v>
+        <v>-5.438096251317057</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8043753579066322</v>
+        <v>0.802986251555848</v>
       </c>
       <c r="H43" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="44">
@@ -1750,19 +1750,19 @@
         <v>210700000</v>
       </c>
       <c r="D44" t="n">
-        <v>16.56381550975512</v>
+        <v>16.63265775452665</v>
       </c>
       <c r="E44" t="n">
-        <v>24803475.43751689</v>
+        <v>24964659.99460781</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.486286738575677</v>
+        <v>-3.042675613588077</v>
       </c>
       <c r="G44" t="n">
-        <v>16.81358544575735</v>
+        <v>16.79478605105006</v>
       </c>
       <c r="H44" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="45">
@@ -1780,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2022508779883776</v>
+        <v>0.2029858218806858</v>
       </c>
       <c r="E45" t="n">
-        <v>41272510.16574624</v>
+        <v>41496019.78333586</v>
       </c>
       <c r="F45" t="n">
-        <v>-4.946455860364696</v>
+        <v>-4.535668225778547</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2040717464484717</v>
+        <v>0.2036532869851435</v>
       </c>
       <c r="H45" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="46">
@@ -1810,19 +1810,19 @@
         <v>999999993.45</v>
       </c>
       <c r="D46" t="n">
-        <v>10.03814972102562</v>
+        <v>10.08969062238289</v>
       </c>
       <c r="E46" t="n">
-        <v>88676169.63886042</v>
+        <v>89731895.7149255</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.50348009159051</v>
+        <v>-3.351595464050587</v>
       </c>
       <c r="G46" t="n">
-        <v>10.12015917940824</v>
+        <v>10.10803013645091</v>
       </c>
       <c r="H46" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="47">
@@ -1840,19 +1840,19 @@
         <v>86712634466</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0227834610011582</v>
+        <v>0.0229385489581322</v>
       </c>
       <c r="E47" t="n">
-        <v>22757160.47829301</v>
+        <v>23020385.90441527</v>
       </c>
       <c r="F47" t="n">
-        <v>-5.479480736354565</v>
+        <v>-4.935783029477224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0231585935657915</v>
+        <v>0.0231168750144423</v>
       </c>
       <c r="H47" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="48">
@@ -1870,19 +1870,19 @@
         <v>21000000</v>
       </c>
       <c r="D48" t="n">
-        <v>229.2026689030462</v>
+        <v>230.7049429611233</v>
       </c>
       <c r="E48" t="n">
-        <v>69504153.98012163</v>
+        <v>69873874.3706418</v>
       </c>
       <c r="F48" t="n">
-        <v>-5.840516107542122</v>
+        <v>-5.472488288918324</v>
       </c>
       <c r="G48" t="n">
-        <v>230.2406184801843</v>
+        <v>229.9681160090976</v>
       </c>
       <c r="H48" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="49">
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3634299649769541</v>
+        <v>0.3654066609858666</v>
       </c>
       <c r="E49" t="n">
-        <v>85826748.80291852</v>
+        <v>86603642.78837593</v>
       </c>
       <c r="F49" t="n">
-        <v>-6.152872201687339</v>
+        <v>-5.840256217823335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3761115254978733</v>
+        <v>0.3755070902972269</v>
       </c>
       <c r="H49" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="50">
@@ -1930,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>22.24514005752849</v>
+        <v>22.30136333714398</v>
       </c>
       <c r="E50" t="n">
-        <v>8371357.368065163</v>
+        <v>8402986.17092145</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.973644472234199</v>
+        <v>-2.653674354782696</v>
       </c>
       <c r="G50" t="n">
-        <v>22.49397454147745</v>
+        <v>22.46080518153678</v>
       </c>
       <c r="H50" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="51">
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3.200773351343412</v>
+        <v>3.212281851458217</v>
       </c>
       <c r="E51" t="n">
-        <v>32420868.58766641</v>
+        <v>32496108.21636644</v>
       </c>
       <c r="F51" t="n">
-        <v>-6.707107306547996</v>
+        <v>-6.508465078754236</v>
       </c>
       <c r="G51" t="n">
-        <v>3.28469445686484</v>
+        <v>3.273771767168606</v>
       </c>
       <c r="H51" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="52">
@@ -1990,19 +1990,19 @@
         <v>644168762</v>
       </c>
       <c r="D52" t="n">
-        <v>3.461186761949088</v>
+        <v>3.480388051229566</v>
       </c>
       <c r="E52" t="n">
-        <v>43895960.4035756</v>
+        <v>44847856.33745009</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.889060486973999</v>
+        <v>-7.678750092370467</v>
       </c>
       <c r="G52" t="n">
-        <v>3.618771257966712</v>
+        <v>3.596944400112978</v>
       </c>
       <c r="H52" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="53">
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.723158295605205</v>
+        <v>2.735973682964012</v>
       </c>
       <c r="E53" t="n">
-        <v>60728871.61596602</v>
+        <v>60914112.01474593</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.01899654682012</v>
+        <v>-3.585678841324242</v>
       </c>
       <c r="G53" t="n">
-        <v>2.779118139968536</v>
+        <v>2.774611319132584</v>
       </c>
       <c r="H53" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="54">
@@ -2050,19 +2050,19 @@
         <v>28704026601</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0641139039405092</v>
+        <v>0.0642964576819243</v>
       </c>
       <c r="E54" t="n">
-        <v>45114767.62453119</v>
+        <v>45257356.04440505</v>
       </c>
       <c r="F54" t="n">
-        <v>-8.168709503473734</v>
+        <v>-8.014852462378961</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06501335342196859</v>
+        <v>0.0649115868391312</v>
       </c>
       <c r="H54" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="55">
@@ -2080,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4.208947650175097</v>
+        <v>4.232697784274436</v>
       </c>
       <c r="E55" t="n">
-        <v>54137335.75386728</v>
+        <v>54558054.13450658</v>
       </c>
       <c r="F55" t="n">
-        <v>-7.30815804212294</v>
+        <v>-6.716694956653594</v>
       </c>
       <c r="G55" t="n">
-        <v>4.385814131030191</v>
+        <v>4.375891895877328</v>
       </c>
       <c r="H55" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="56">
@@ -2110,19 +2110,19 @@
         <v>10000000000</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1833873675677493</v>
+        <v>0.1843582935250483</v>
       </c>
       <c r="E56" t="n">
-        <v>44625472.41009375</v>
+        <v>44950777.34959612</v>
       </c>
       <c r="F56" t="n">
-        <v>-8.045959901924652</v>
+        <v>-7.522938270177661</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1882228009118393</v>
+        <v>0.1877839629998194</v>
       </c>
       <c r="H56" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="57">
@@ -2140,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3317757903515358</v>
+        <v>0.3337681418140623</v>
       </c>
       <c r="E57" t="n">
-        <v>72256852.93873942</v>
+        <v>73495471.42484793</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.694962803552409</v>
+        <v>-4.089026656567444</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3347457808490293</v>
+        <v>0.3342787286153585</v>
       </c>
       <c r="H57" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="58">
@@ -2170,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>17.56778844236263</v>
+        <v>17.52388946628782</v>
       </c>
       <c r="E58" t="n">
-        <v>13220717.83450496</v>
+        <v>12408498.79721028</v>
       </c>
       <c r="F58" t="n">
-        <v>-4.671229924768629</v>
+        <v>-4.910961552126381</v>
       </c>
       <c r="G58" t="n">
-        <v>18.0306465294782</v>
+        <v>18.0010427894502</v>
       </c>
       <c r="H58" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="59">
@@ -2200,19 +2200,19 @@
         <v>3175000000</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4849823297451328</v>
+        <v>0.4898708196738049</v>
       </c>
       <c r="E59" t="n">
-        <v>93429676.35674819</v>
+        <v>94586902.37159176</v>
       </c>
       <c r="F59" t="n">
-        <v>-10.50882598656552</v>
+        <v>-9.475287569623987</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5028413180145808</v>
+        <v>0.5009069681711168</v>
       </c>
       <c r="H59" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="60">
@@ -2230,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5.239154985647333</v>
+        <v>5.29543645381861</v>
       </c>
       <c r="E60" t="n">
-        <v>34248273.13398734</v>
+        <v>34551655.5949595</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.937378280250306</v>
+        <v>-3.290323686465688</v>
       </c>
       <c r="G60" t="n">
-        <v>5.304690468160249</v>
+        <v>5.293664393258978</v>
       </c>
       <c r="H60" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="61">
@@ -2260,19 +2260,19 @@
         <v>200000000</v>
       </c>
       <c r="D61" t="n">
-        <v>11.05155376106706</v>
+        <v>11.07150030176666</v>
       </c>
       <c r="E61" t="n">
-        <v>638155.6177684378</v>
+        <v>641288.7701626321</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.964817857730126</v>
+        <v>-0.8619525572045404</v>
       </c>
       <c r="G61" t="n">
-        <v>11.07794738852414</v>
+        <v>11.07424464591755</v>
       </c>
       <c r="H61" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="62">
@@ -2290,19 +2290,19 @@
         <v>3000000000</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4744200940296352</v>
+        <v>0.4771304541329743</v>
       </c>
       <c r="E62" t="n">
-        <v>25887501.63028597</v>
+        <v>26160665.64849852</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.8879280183415</v>
+        <v>-4.431489448361488</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4723689064591215</v>
+        <v>0.471647679797115</v>
       </c>
       <c r="H62" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="63">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7643105408630777</v>
+        <v>0.7692184030064616</v>
       </c>
       <c r="E63" t="n">
-        <v>56353053.5764173</v>
+        <v>57286716.03179077</v>
       </c>
       <c r="F63" t="n">
-        <v>-8.455617740187167</v>
+        <v>-7.96111694338625</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7867260737979288</v>
+        <v>0.7850005165233475</v>
       </c>
       <c r="H63" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="64">
@@ -2350,19 +2350,19 @@
         <v>2630547141</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4696050579380655</v>
+        <v>0.472712210363298</v>
       </c>
       <c r="E64" t="n">
-        <v>54920270.07027698</v>
+        <v>55509764.42245329</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.721933664580022</v>
+        <v>-7.216216619898908</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4831587145785492</v>
+        <v>0.4819306928483113</v>
       </c>
       <c r="H64" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="65">
@@ -2380,19 +2380,19 @@
         <v>10000000000</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4448802175468912</v>
+        <v>0.448974683147663</v>
       </c>
       <c r="E65" t="n">
-        <v>76197939.52469747</v>
+        <v>77037706.20009713</v>
       </c>
       <c r="F65" t="n">
-        <v>-7.899119197540935</v>
+        <v>-7.22043603089161</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4746995954653084</v>
+        <v>0.4732417511268104</v>
       </c>
       <c r="H65" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="66">
@@ -2410,19 +2410,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" t="n">
-        <v>1283.855512648185</v>
+        <v>1293.693815483873</v>
       </c>
       <c r="E66" t="n">
-        <v>38937342.10592522</v>
+        <v>38646153.48055481</v>
       </c>
       <c r="F66" t="n">
-        <v>-11.81798731418845</v>
+        <v>-11.11440358369486</v>
       </c>
       <c r="G66" t="n">
-        <v>1377.378779244615</v>
+        <v>1365.665191743982</v>
       </c>
       <c r="H66" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="67">
@@ -2440,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0681997463540025</v>
+        <v>0.0681947718721061</v>
       </c>
       <c r="E67" t="n">
-        <v>8142955.267243866</v>
+        <v>8141779.505972645</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.091941948004824</v>
+        <v>-2.065145784434361</v>
       </c>
       <c r="G67" t="n">
-        <v>0.06880218916029721</v>
+        <v>0.0687431017553435</v>
       </c>
       <c r="H67" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="68">
@@ -2470,19 +2470,19 @@
         <v>2000000000</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5485133137658671</v>
+        <v>0.5521243630488309</v>
       </c>
       <c r="E68" t="n">
-        <v>10262888.14573162</v>
+        <v>10365674.7558606</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.524921352215078</v>
+        <v>-5.189069564354593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5622747964606907</v>
+        <v>0.5607393093750623</v>
       </c>
       <c r="H68" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="69">
@@ -2500,19 +2500,19 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>603.8202917871117</v>
+        <v>607.697966198818</v>
       </c>
       <c r="E69" t="n">
-        <v>11301114.45773778</v>
+        <v>11373689.10114176</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.181186364492896</v>
+        <v>-2.820048211355692</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="70">
@@ -2530,19 +2530,19 @@
         <v>1818000000</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6223506842340983</v>
+        <v>0.6265865247348464</v>
       </c>
       <c r="E70" t="n">
-        <v>18885875.94140019</v>
+        <v>19027774.49477397</v>
       </c>
       <c r="F70" t="n">
-        <v>-5.664908629475115</v>
+        <v>-4.945153182347511</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6292294061095763</v>
+        <v>0.6265622914257434</v>
       </c>
       <c r="H70" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="71">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7739677945459865</v>
+        <v>0.7788064684079382</v>
       </c>
       <c r="E71" t="n">
-        <v>72317537.6205415</v>
+        <v>72832124.25389594</v>
       </c>
       <c r="F71" t="n">
-        <v>-8.304888582817776</v>
+        <v>-7.730328906856132</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8001925716231685</v>
+        <v>0.7984820503301564</v>
       </c>
       <c r="H71" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="72">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9976964783104504</v>
+        <v>0.9976964985523024</v>
       </c>
       <c r="E72" t="n">
-        <v>22221876.25546323</v>
+        <v>22220725.70046323</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0011156652422023</v>
+        <v>-0.002284651077521</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="73">
@@ -2620,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1.12892594854e-05</v>
+        <v>1.13640330586e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>53492670.76428469</v>
+        <v>53794434.80229677</v>
       </c>
       <c r="F73" t="n">
-        <v>-8.363662383718895</v>
+        <v>-7.858075964310598</v>
       </c>
       <c r="G73" t="n">
-        <v>1.15616252007e-05</v>
+        <v>1.15118747924e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="74">
@@ -2650,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1797293094238838</v>
+        <v>0.1807302139807161</v>
       </c>
       <c r="E74" t="n">
-        <v>48230289.15947066</v>
+        <v>48755190.3846544</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.451273726046038</v>
+        <v>-6.015983318734015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1821464847958657</v>
+        <v>0.1817410755645439</v>
       </c>
       <c r="H74" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="75">
@@ -2680,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0886614482151354</v>
+        <v>0.0893984898375097</v>
       </c>
       <c r="E75" t="n">
-        <v>10742740.43325384</v>
+        <v>10822210.61181171</v>
       </c>
       <c r="F75" t="n">
-        <v>-6.874338748587629</v>
+        <v>-6.018116139362933</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0913646475318233</v>
+        <v>0.09110736386917929</v>
       </c>
       <c r="H75" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="76">
@@ -2710,19 +2710,19 @@
         <v>100000000</v>
       </c>
       <c r="D76" t="n">
-        <v>8.727175848469148</v>
+        <v>8.77383560231317</v>
       </c>
       <c r="E76" t="n">
-        <v>45775295.80938108</v>
+        <v>46150998.90039462</v>
       </c>
       <c r="F76" t="n">
-        <v>-5.622927175884642</v>
+        <v>-4.956532422652955</v>
       </c>
       <c r="G76" t="n">
-        <v>8.91105329911961</v>
+        <v>8.873629055578359</v>
       </c>
       <c r="H76" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="77">
@@ -2740,19 +2740,19 @@
         <v>2100000000</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5441020272576751</v>
+        <v>0.5474245526509444</v>
       </c>
       <c r="E77" t="n">
-        <v>59388903.70260775</v>
+        <v>59410841.55956086</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.179906125569557</v>
+        <v>-3.722061381327582</v>
       </c>
       <c r="G77" t="n">
-        <v>0.561913517779402</v>
+        <v>0.5606892622302188</v>
       </c>
       <c r="H77" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="78">
@@ -2770,19 +2770,19 @@
         <v>14881364</v>
       </c>
       <c r="D78" t="n">
-        <v>69.37486474912872</v>
+        <v>69.64116766977109</v>
       </c>
       <c r="E78" t="n">
-        <v>10675463.9206837</v>
+        <v>10711992.15846364</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.134731057667506</v>
+        <v>-2.717335748385156</v>
       </c>
       <c r="G78" t="n">
-        <v>69.37812644007207</v>
+        <v>69.28114016879941</v>
       </c>
       <c r="H78" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="79">
@@ -2800,19 +2800,19 @@
         <v>1000000000</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8307004320442866</v>
+        <v>0.8360399723196338</v>
       </c>
       <c r="E79" t="n">
-        <v>9397271.335065609</v>
+        <v>9499187.305290477</v>
       </c>
       <c r="F79" t="n">
-        <v>-6.838924235659997</v>
+        <v>-6.193998374036033</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8517306820074946</v>
+        <v>0.8496616412330231</v>
       </c>
       <c r="H79" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="80">
@@ -2830,19 +2830,19 @@
         <v>580000000</v>
       </c>
       <c r="D80" t="n">
-        <v>2.162633544985372</v>
+        <v>2.174049400562978</v>
       </c>
       <c r="E80" t="n">
-        <v>3994703.773199595</v>
+        <v>4020821.143730174</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.249042400581502</v>
+        <v>-4.243700945416238</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="81">
@@ -2860,19 +2860,19 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0132099956544099</v>
+        <v>0.0132326225574872</v>
       </c>
       <c r="E81" t="n">
-        <v>11999002.61338104</v>
+        <v>12040100.98384464</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.876904907918119</v>
+        <v>-3.688709851325987</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0133742920755036</v>
+        <v>0.0133463487595621</v>
       </c>
       <c r="H81" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="82">
@@ -2890,19 +2890,19 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9982620237116672</v>
+        <v>0.9983127064537924</v>
       </c>
       <c r="E82" t="n">
-        <v>8939006.081061056</v>
+        <v>8947105.451813435</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1806435559488069</v>
+        <v>-0.1815774802922565</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9985215089226388</v>
+        <v>0.9984617540967416</v>
       </c>
       <c r="H82" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="83">
@@ -2920,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7.361434811137042</v>
+        <v>7.397914870883448</v>
       </c>
       <c r="E83" t="n">
-        <v>148966341.3839508</v>
+        <v>147650655.9995573</v>
       </c>
       <c r="F83" t="n">
-        <v>-16.66330032111655</v>
+        <v>-16.42561681298717</v>
       </c>
       <c r="G83" t="n">
-        <v>8.086417063358727</v>
+        <v>8.015196342727146</v>
       </c>
       <c r="H83" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="84">
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.870330002256832</v>
+        <v>0.8781661326532031</v>
       </c>
       <c r="E84" t="n">
-        <v>39392005.75798941</v>
+        <v>39861790.59051279</v>
       </c>
       <c r="F84" t="n">
-        <v>-7.123272956097913</v>
+        <v>-6.443070896768138</v>
       </c>
       <c r="G84" t="n">
-        <v>0.904567314271282</v>
+        <v>0.9024296962588342</v>
       </c>
       <c r="H84" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="85">
@@ -2980,19 +2980,19 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>3113.88773060434</v>
+        <v>3113.811825636049</v>
       </c>
       <c r="E85" t="n">
-        <v>6505929.295504448</v>
+        <v>6521254.651175963</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2324938147597639</v>
+        <v>0.240516074570105</v>
       </c>
       <c r="G85" t="n">
-        <v>3111.819718044713</v>
+        <v>3111.97268421377</v>
       </c>
       <c r="H85" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="86">
@@ -3010,19 +3010,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1.075929622988704</v>
+        <v>1.078356661010723</v>
       </c>
       <c r="E86" t="n">
-        <v>3344034.538967133</v>
+        <v>3354281.476515043</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.872798978640378</v>
+        <v>-3.669043980278602</v>
       </c>
       <c r="G86" t="n">
-        <v>1.088314174680323</v>
+        <v>1.087284605181189</v>
       </c>
       <c r="H86" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="87">
@@ -3040,79 +3040,79 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>2.194707106111947</v>
+        <v>2.206260012016696</v>
       </c>
       <c r="E87" t="n">
-        <v>13341133.95427528</v>
+        <v>13501738.88255338</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.57496694221837</v>
+        <v>-1.05725926064315</v>
       </c>
       <c r="G87" t="n">
-        <v>2.16526308256968</v>
+        <v>2.16381071840535</v>
       </c>
       <c r="H87" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6491911161441259</v>
+        <v>0.0154519859083297</v>
       </c>
       <c r="E88" t="n">
-        <v>9733887.588373197</v>
+        <v>38670584.455144</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.185247168088681</v>
+        <v>-7.244844529664358</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6637110068922031</v>
+        <v>0.0155755438700855</v>
       </c>
       <c r="H88" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>50000000000</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0153273036288905</v>
+        <v>0.6498973145992833</v>
       </c>
       <c r="E89" t="n">
-        <v>38156480.37939525</v>
+        <v>9784674.578189235</v>
       </c>
       <c r="F89" t="n">
-        <v>-7.866606281884973</v>
+        <v>-4.083726145111177</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0156240585593196</v>
+        <v>0.6629573109917954</v>
       </c>
       <c r="H89" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="90">
@@ -3130,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2690171720934153</v>
+        <v>0.27001769406763</v>
       </c>
       <c r="E90" t="n">
-        <v>15313112.44455382</v>
+        <v>15437541.00032419</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.050687742001519</v>
+        <v>-3.694955399782808</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2726459687979406</v>
+        <v>0.2719935528067818</v>
       </c>
       <c r="H90" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="91">
@@ -3160,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>6.725345523e-07</v>
+        <v>6.726925356e-07</v>
       </c>
       <c r="E91" t="n">
-        <v>1117956.492391713</v>
+        <v>1119582.55069419</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.036917634831299</v>
+        <v>-1.144621068620583</v>
       </c>
       <c r="G91" t="n">
-        <v>6.787313542e-07</v>
+        <v>6.785067114e-07</v>
       </c>
       <c r="H91" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="92">
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>3118.439354974003</v>
+        <v>3120.391715511204</v>
       </c>
       <c r="E92" t="n">
-        <v>46961060.14689401</v>
+        <v>47179474.36029996</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7794311876670654</v>
+        <v>0.8938231713416683</v>
       </c>
       <c r="G92" t="n">
-        <v>3104.106441602849</v>
+        <v>3106.213260630469</v>
       </c>
       <c r="H92" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="93">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1729546685498464</v>
+        <v>0.1744014464748732</v>
       </c>
       <c r="E93" t="n">
-        <v>10752417.7391427</v>
+        <v>11074007.92505747</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.878607012422229</v>
+        <v>-5.04205547579715</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1753388064911254</v>
+        <v>0.1749882961790816</v>
       </c>
       <c r="H93" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="94">
@@ -3250,19 +3250,19 @@
         <v>3030303030.299</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4874479490292167</v>
+        <v>0.4917164978778142</v>
       </c>
       <c r="E94" t="n">
-        <v>43863980.49589213</v>
+        <v>44371785.7632005</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.786932064731952</v>
+        <v>-4.328137202239909</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4891359202111243</v>
+        <v>0.4883480961803173</v>
       </c>
       <c r="H94" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="95">
@@ -3280,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>31.12844986236473</v>
+        <v>31.16992377200446</v>
       </c>
       <c r="E95" t="n">
-        <v>8021229.032922717</v>
+        <v>8035242.495236797</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.508927697391403</v>
+        <v>-5.36077167890005</v>
       </c>
       <c r="G95" t="n">
-        <v>32.16802660697675</v>
+        <v>32.11343468342404</v>
       </c>
       <c r="H95" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="96">
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1022988982820189</v>
+        <v>0.1025970098339907</v>
       </c>
       <c r="E96" t="n">
-        <v>5943755.803454272</v>
+        <v>5963499.473332029</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.83614497594405</v>
+        <v>-3.502170642702663</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1035489193639471</v>
+        <v>0.1034965879236058</v>
       </c>
       <c r="H96" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="97">
@@ -3340,19 +3340,19 @@
         <v>450000000</v>
       </c>
       <c r="D97" t="n">
-        <v>1.988481670811483</v>
+        <v>2.000466894716783</v>
       </c>
       <c r="E97" t="n">
-        <v>60071163.68201321</v>
+        <v>60670783.59475005</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.318169470205025</v>
+        <v>-6.464626824762689</v>
       </c>
       <c r="G97" t="n">
-        <v>2.012541646846876</v>
+        <v>2.008554710448774</v>
       </c>
       <c r="H97" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="98">
@@ -3370,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3769956106414815</v>
+        <v>0.3778741654980206</v>
       </c>
       <c r="E98" t="n">
-        <v>7816060.295731476</v>
+        <v>7847665.196937482</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.346771038922388</v>
+        <v>-4.156553228174255</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3841858896809982</v>
+        <v>0.3832745655695799</v>
       </c>
       <c r="H98" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="99">
@@ -3400,19 +3400,19 @@
         <v>21000000</v>
       </c>
       <c r="D99" t="n">
-        <v>36.23416723526778</v>
+        <v>36.46182859254305</v>
       </c>
       <c r="E99" t="n">
-        <v>10347820.05933512</v>
+        <v>10442760.87399487</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.029792248903167</v>
+        <v>-1.744098459040662</v>
       </c>
       <c r="G99" t="n">
-        <v>36.06652763174253</v>
+        <v>36.03383640891963</v>
       </c>
       <c r="H99" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="100">
@@ -3430,19 +3430,19 @@
         <v>223000000</v>
       </c>
       <c r="D100" t="n">
-        <v>3.156797711598248</v>
+        <v>3.182219833676045</v>
       </c>
       <c r="E100" t="n">
-        <v>3683151.047598855</v>
+        <v>3766781.320410729</v>
       </c>
       <c r="F100" t="n">
-        <v>1.391614553951696</v>
+        <v>1.83149482302352</v>
       </c>
       <c r="G100" t="n">
-        <v>3.125286178539979</v>
+        <v>3.128121358251112</v>
       </c>
       <c r="H100" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="101">
@@ -3460,19 +3460,19 @@
         <v>100000000</v>
       </c>
       <c r="D101" t="n">
-        <v>15.77405891378906</v>
+        <v>15.880922078181</v>
       </c>
       <c r="E101" t="n">
-        <v>32019059.55696171</v>
+        <v>32715960.2208523</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.884511831169386</v>
+        <v>-5.272966071964917</v>
       </c>
       <c r="G101" t="n">
-        <v>16.19249421208042</v>
+        <v>16.16095663836915</v>
       </c>
       <c r="H101" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>maxSupply</t>
+          <t>rank</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>priceUsd</t>
+          <t>supply</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>volumeUsd24Hr</t>
+          <t>explorer</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>changePercent24Hr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vwap24Hr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
+          <t>marketCapUsd</t>
         </is>
       </c>
     </row>
@@ -483,26 +473,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BTC</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21000000</v>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>82927.52916336917</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6787931376.162843</v>
+        <v>19844090</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://blockchain.info/</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.800994089607436</v>
-      </c>
-      <c r="G2" t="n">
-        <v>82979.25552039099</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1743297089423</v>
+        <v>1645408213162.308</v>
       </c>
     </row>
     <row r="3">
@@ -513,26 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ETH</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>1833.695986101409</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5548289274.7092</v>
+        <v>120654453.5456346</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>-3.790752072379215</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1846.805894832743</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1743297089423</v>
+        <v>219447239944.2114</v>
       </c>
     </row>
     <row r="4">
@@ -543,26 +529,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USDT</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1.003285359699285</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21803680461.65792</v>
+        <v>144182349120.787</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.omniexplorer.info/asset/31</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>0.175187192831505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.00057496401654</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1743297089423</v>
+        <v>144472528344.4948</v>
       </c>
     </row>
     <row r="5">
@@ -573,26 +557,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100000000000</v>
+          <t>xrp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>2.147509659614922</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1638145769.172129</v>
+        <v>58205697378</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://xrpcharts.ripple.com/#/graph/</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>-2.969282930273178</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.123485054649936</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1743297089423</v>
+        <v>125128539404.0488</v>
       </c>
     </row>
     <row r="6">
@@ -603,26 +585,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BNB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>bnb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>144006830</v>
       </c>
-      <c r="D6" t="n">
-        <v>605.27236425811</v>
-      </c>
-      <c r="E6" t="n">
-        <v>316941868.5504553</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xB8c77482e45F1F44dE1745F52C74426C631bDD52</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.630675894687077</v>
-      </c>
-      <c r="G6" t="n">
-        <v>606.1983101043919</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1743297089423</v>
+        <v>87075359850.57246</v>
       </c>
     </row>
     <row r="7">
@@ -633,26 +613,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>125.2021089351357</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1311190636.556914</v>
+        <v>512293807.5507926</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://explorer.solana.com/</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>-3.604468882237792</v>
-      </c>
-      <c r="G7" t="n">
-        <v>125.9657787729132</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1743297089423</v>
+        <v>64173621326.06544</v>
       </c>
     </row>
     <row r="8">
@@ -663,26 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDC</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>usdc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>1.001278456154777</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3938548447.226166</v>
+        <v>60242525341.88815</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.100939497354222</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.001476797453904</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1743297089423</v>
+        <v>60263652571.4768</v>
       </c>
     </row>
     <row r="9">
@@ -693,26 +669,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOGE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1703741125665958</v>
-      </c>
-      <c r="E9" t="n">
-        <v>594437659.180178</v>
+        <v>148644126383.7052</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://dogechain.info/chain/Dogecoin</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>-6.06862600745446</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1722242722826475</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1743297089423</v>
+        <v>25192339632.77584</v>
       </c>
     </row>
     <row r="10">
@@ -723,26 +697,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADA</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>45000000000</v>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6745334421358229</v>
-      </c>
-      <c r="E10" t="n">
-        <v>327578924.8543985</v>
+        <v>35242104181.18973</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://cardanoexplorer.com/</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>-4.954127366025689</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6776034453413297</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1743297089423</v>
+        <v>23723258891.01</v>
       </c>
     </row>
     <row r="11">
@@ -753,26 +725,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRX</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>tron</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2302783259612055</v>
-      </c>
-      <c r="E11" t="n">
-        <v>284280223.9630108</v>
+        <v>94994605853.76372</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://tronscan.org/#/</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>-1.028240849361373</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2334863945424018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1743297089423</v>
+        <v>21915590545.01772</v>
       </c>
     </row>
     <row r="12">
@@ -783,26 +753,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STETH</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>lido staked eth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>1825.752863667699</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6966864.279813101</v>
+        <v>9367578.04514548</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>-4.03842628894656</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1856.600704746712</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1743297089423</v>
+        <v>17013824733.87183</v>
       </c>
     </row>
     <row r="13">
@@ -813,26 +781,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WBTC</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+          <t>wrapped bitcoin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>82293.00008394162</v>
-      </c>
-      <c r="E13" t="n">
-        <v>113069494.8774586</v>
+        <v>129077.40552189</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x2260fac5e5542a773aa44fbcfedf7c193bc2c599</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>-2.363385773569916</v>
-      </c>
-      <c r="G13" t="n">
-        <v>82858.57567879203</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1743297089423</v>
+        <v>10598806295.64475</v>
       </c>
     </row>
     <row r="14">
@@ -843,26 +809,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+          <t>toncoin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>3.670128622638756</v>
-      </c>
-      <c r="E14" t="n">
-        <v>90060417.19794378</v>
+        <v>2484528578.654807</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>-3.833941653919497</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.718938445881623</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1743297089423</v>
+        <v>9472862912.832815</v>
       </c>
     </row>
     <row r="15">
@@ -873,26 +837,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>chainlink</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>13.55766616601435</v>
-      </c>
-      <c r="E15" t="n">
-        <v>149729896.9923917</v>
+        <v>657099970.4527867</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>-5.105524365812474</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13.74571805319632</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1743297089423</v>
+        <v>8958597212.633591</v>
       </c>
     </row>
     <row r="16">
@@ -903,26 +865,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+          <t>unus sed leo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>9.592517627144282</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5077252.470146463</v>
+        <v>923836969.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://eospark.com/account/bitfinexleo1</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>-1.343885281440595</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.546136462148755</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1743297089423</v>
+        <v>8901839290.092813</v>
       </c>
     </row>
     <row r="17">
@@ -933,26 +893,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XLM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>50001806812</v>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2675161271012842</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64409490.96026874</v>
+        <v>30787178407.49416</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://dashboard.stellar.org/</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>-2.910396109676125</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2676030983765726</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1743297089423</v>
+        <v>8265176800.009464</v>
       </c>
     </row>
     <row r="18">
@@ -963,86 +921,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVAX</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>715748719</v>
+          <t>avalanche</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>19.68883789366965</v>
-      </c>
-      <c r="E18" t="n">
-        <v>131347962.3695596</v>
+        <v>414844783.0787662</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://avascan.info/</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>-3.544833516869298</v>
-      </c>
-      <c r="G18" t="n">
-        <v>19.93961769465554</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1743297089423</v>
+        <v>8051635600.150704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHIB</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>589552695333683</v>
+          <t>sui</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>1.27072729629e-05</v>
-      </c>
-      <c r="E19" t="n">
-        <v>86865024.13982321</v>
+        <v>3169845047.483888</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://suiexplorer.com/</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>-4.63866863341444</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.27713982102e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1743297089423</v>
+        <v>7482713340.319256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>10000000000</v>
+          <t>shiba inu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>2.309062851846233</v>
-      </c>
-      <c r="E20" t="n">
-        <v>603811213.5792202</v>
+        <v>589250822785832.4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>-8.380111858009318</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.357228397357926</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1743297089423</v>
+        <v>7426139533.025967</v>
       </c>
     </row>
     <row r="21">
@@ -1053,26 +1005,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HBAR</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>50000000000</v>
+          <t>hedera</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1727124461220426</v>
-      </c>
-      <c r="E21" t="n">
-        <v>129297238.4542243</v>
+        <v>42219399509.40282</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://app.dragonglass.me/hedera/home</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>-5.543462823116546</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1726025041526711</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1743297089423</v>
+        <v>7199344865.450047</v>
       </c>
     </row>
     <row r="22">
@@ -1083,26 +1033,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LTC</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>84000000</v>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>85.61918210119242</v>
-      </c>
-      <c r="E22" t="n">
-        <v>203624267.8348365</v>
+        <v>75558468.3040892</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>-2.357580805374779</v>
-      </c>
-      <c r="G22" t="n">
-        <v>85.94390786870935</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1743297089423</v>
+        <v>6524123028.593897</v>
       </c>
     </row>
     <row r="23">
@@ -1113,26 +1061,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOT</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>polkadot</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>4.080725676701681</v>
-      </c>
-      <c r="E23" t="n">
-        <v>84990974.29550412</v>
+        <v>1522267060</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://polkascan.io/polkadot</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>-4.691757297221193</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.115912367480848</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1743297089423</v>
+        <v>6207093548.684222</v>
       </c>
     </row>
     <row r="24">
@@ -1143,26 +1089,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WETH</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
+          <t>wrapped eth</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>1820.303492719007</v>
-      </c>
-      <c r="E24" t="n">
-        <v>458398419.59471</v>
+        <v>3375317.5926469</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>-4.510485099114457</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1743297089423</v>
+        <v>6155101635.752826</v>
       </c>
     </row>
     <row r="25">
@@ -1173,26 +1117,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>888888888</v>
+          <t>mantra</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>6.26213749549555</v>
-      </c>
-      <c r="E25" t="n">
-        <v>31935081.26858781</v>
+        <v>974778351.8199997</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>0.2400808515054984</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6.187826864389828</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1743297089423</v>
+        <v>6075993196.303693</v>
       </c>
     </row>
     <row r="26">
@@ -1203,26 +1145,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BCH</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>21000000</v>
+          <t>bitcoin cash</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>303.4525906130893</v>
-      </c>
-      <c r="E26" t="n">
-        <v>50523838.68709208</v>
+        <v>19849115.625</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>-1.534200966876454</v>
-      </c>
-      <c r="G26" t="n">
-        <v>304.850549621333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1743297089423</v>
+        <v>6056506018.194562</v>
       </c>
     </row>
     <row r="27">
@@ -1233,116 +1173,108 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BGB</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
+          <t>bitget token</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>4.648244786514637</v>
-      </c>
-      <c r="E27" t="n">
-        <v>128223484.9942609</v>
+        <v>1200000000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>-4.072911163628737</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1743297089423</v>
+        <v>5500491881.54157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>100000000000</v>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7981116800254935</v>
-      </c>
-      <c r="E28" t="n">
-        <v>94983084.91939208</v>
+        <v>5365382702.664872</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>-4.053573362150864</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1743297089423</v>
+        <v>5361791683.717277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAI</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
+          <t>ethena usde</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9998210050652018</v>
-      </c>
-      <c r="E29" t="n">
-        <v>76516309.83574586</v>
+        <v>5247255782.710276</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>etherscan.io</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0317284179221477</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.999378558561045</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1743297089423</v>
+        <v>5246902513.331624</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>USDE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9997036594883386</v>
-      </c>
-      <c r="E30" t="n">
-        <v>42153539.50577791</v>
+        <v>6773814332.260494</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://blockexplorer.minepi.com/</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0325274575496051</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1743297089423</v>
+        <v>5167207446.90474</v>
       </c>
     </row>
     <row r="31">
@@ -1353,26 +1285,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HYPE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1000000000</v>
+          <t>hyperliquid</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>12.87350087974377</v>
-      </c>
-      <c r="E31" t="n">
-        <v>20604134.13641572</v>
+        <v>333928180</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>-4.614718057507005</v>
-      </c>
-      <c r="G31" t="n">
-        <v>12.85377755483446</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1743297089423</v>
+        <v>4201769039.529313</v>
       </c>
     </row>
     <row r="32">
@@ -1383,26 +1313,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XMR</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>216.5043471615185</v>
-      </c>
-      <c r="E32" t="n">
-        <v>29365008.47897424</v>
+        <v>18446744.07370955</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://moneroblocks.info/</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.2779796124097036</v>
-      </c>
-      <c r="G32" t="n">
-        <v>216.1808981338185</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1743297089423</v>
+        <v>4008181468.86502</v>
       </c>
     </row>
     <row r="33">
@@ -1413,26 +1341,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
+          <t>uniswap</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>5.997394508584185</v>
-      </c>
-      <c r="E33" t="n">
-        <v>61876197.04852512</v>
+        <v>628494054.71</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>-3.416881010198233</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.057285326028802</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1743297089423</v>
+        <v>3749159627.741323</v>
       </c>
     </row>
     <row r="34">
@@ -1443,26 +1369,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APT</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
+          <t>aptos</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>5.223393202934701</v>
-      </c>
-      <c r="E34" t="n">
-        <v>49438667.37895875</v>
+        <v>604031596.593968</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://explorer.aptoslabs.com/</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>-6.299126473365803</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.34913778345696</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1743297089423</v>
+        <v>3195108080.106734</v>
       </c>
     </row>
     <row r="35">
@@ -1473,26 +1397,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NEAR</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
+          <t>near protocol</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>2.584789059970015</v>
-      </c>
-      <c r="E35" t="n">
-        <v>74241312.14129223</v>
+        <v>1198396448</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://explorer.nearprotocol.com/</t>
+        </is>
       </c>
       <c r="F35" t="n">
-        <v>-5.57141819633397</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.631273174115652</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1743297089423</v>
+        <v>3160198965.96925</v>
       </c>
     </row>
     <row r="36">
@@ -1503,26 +1425,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>420690000000000</v>
+          <t>pepe</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>7.2019165067e-06</v>
-      </c>
-      <c r="E36" t="n">
-        <v>324447816.0335299</v>
+        <v>420689899653543.6</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>-8.178375055183244</v>
-      </c>
-      <c r="G36" t="n">
-        <v>7.4251425768e-06</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1743297089423</v>
+        <v>2967439521.620103</v>
       </c>
     </row>
     <row r="37">
@@ -1533,26 +1453,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKB</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>48.19366959066517</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2172852.576908858</v>
+        <v>60000000</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>-2.030974933212208</v>
-      </c>
-      <c r="G37" t="n">
-        <v>48.22096277802032</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1743297089423</v>
+        <v>2912819056.666005</v>
       </c>
     </row>
     <row r="38">
@@ -1563,26 +1481,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CRO</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>30263013692</v>
+          <t>cronos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1050054112391722</v>
-      </c>
-      <c r="E38" t="n">
-        <v>31308438.81772804</v>
+        <v>26571560696</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+        </is>
       </c>
       <c r="F38" t="n">
-        <v>4.407271675063641</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.1014797713652044</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1743297089423</v>
+        <v>2769337703.796009</v>
       </c>
     </row>
     <row r="39">
@@ -1593,176 +1509,164 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>6219316795</v>
+          <t>mantle</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>0.80243885417295</v>
-      </c>
-      <c r="E39" t="n">
-        <v>89062690.90208563</v>
+        <v>3364694382.836841</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://mantlescan.xyz/</t>
+        </is>
       </c>
       <c r="F39" t="n">
-        <v>-3.878696371064016</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.812877100848315</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1743297089423</v>
+        <v>2699772651.669368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
+          <t>internet computer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9984440841840216</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1580817680.88182</v>
+        <v>482076932.8747825</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>-0.0794863613942713</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.998667843755949</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1743297089423</v>
+        <v>2591823755.868845</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ICP</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
+          <t>first digital usd</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>5.355358167420772</v>
-      </c>
-      <c r="E41" t="n">
-        <v>30285562.28965387</v>
+        <v>2588088088.167816</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>-4.777911829324881</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5.402828778999718</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1743297089423</v>
+        <v>2583960590.510273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AAVE</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
+          <t>ondo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>168.9382108748585</v>
-      </c>
-      <c r="E42" t="n">
-        <v>132152343.37039</v>
+        <v>3159107529</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+        </is>
       </c>
       <c r="F42" t="n">
-        <v>-3.975614576502062</v>
-      </c>
-      <c r="G42" t="n">
-        <v>173.3192129933889</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1743297089423</v>
+        <v>2527930536.210728</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ONDO</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
+          <t>ethereum classic</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8014353330087522</v>
-      </c>
-      <c r="E43" t="n">
-        <v>121732495.5327971</v>
+        <v>151321540.2914661</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://gastracker.io/</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>-5.438096251317057</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.802986251555848</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1743297089423</v>
+        <v>2518538271.218329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ETC</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>210700000</v>
+          <t>aave</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="D44" t="n">
-        <v>16.63265775452665</v>
-      </c>
-      <c r="E44" t="n">
-        <v>24964659.99460781</v>
+        <v>15093850.10196759</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>-3.042675613588077</v>
-      </c>
-      <c r="G44" t="n">
-        <v>16.79478605105006</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1743297089423</v>
+        <v>2480477522.312798</v>
       </c>
     </row>
     <row r="45">
@@ -1773,26 +1677,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
+          <t>pol (prev. matic)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="D45" t="n">
-        <v>0.2029858218806858</v>
-      </c>
-      <c r="E45" t="n">
-        <v>41496019.78333586</v>
+        <v>10392099602.65343</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+        </is>
       </c>
       <c r="F45" t="n">
-        <v>-4.535668225778547</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.2036532869851435</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1743297089423</v>
+        <v>2125677493.863783</v>
       </c>
     </row>
     <row r="46">
@@ -1803,26 +1705,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>999999993.45</v>
+          <t>trump official</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="D46" t="n">
-        <v>10.08969062238289</v>
-      </c>
-      <c r="E46" t="n">
-        <v>89731895.7149255</v>
+        <v>199999429.103735</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+        </is>
       </c>
       <c r="F46" t="n">
-        <v>-3.351595464050587</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10.10803013645091</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1743297089423</v>
+        <v>2035525360.106597</v>
       </c>
     </row>
     <row r="47">
@@ -1833,26 +1733,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VET</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>86712634466</v>
+          <t>vechain</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0229385489581322</v>
-      </c>
-      <c r="E47" t="n">
-        <v>23020385.90441527</v>
+        <v>85985041177</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://explore.veforge.com/</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>-4.935783029477224</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.0231168750144423</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1743297089423</v>
+        <v>1964184580.03706</v>
       </c>
     </row>
     <row r="48">
@@ -1863,26 +1761,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAO</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>21000000</v>
+          <t>bittensor</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="D48" t="n">
-        <v>230.7049429611233</v>
-      </c>
-      <c r="E48" t="n">
-        <v>69873874.3706418</v>
+        <v>8534124</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
       </c>
       <c r="F48" t="n">
-        <v>-5.472488288918324</v>
-      </c>
-      <c r="G48" t="n">
-        <v>229.9681160090976</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1743297089423</v>
+        <v>1945000796.773782</v>
       </c>
     </row>
     <row r="49">
@@ -1893,86 +1789,80 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENA</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
+          <t>ethena</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3654066609858666</v>
-      </c>
-      <c r="E49" t="n">
-        <v>86603642.78837593</v>
+        <v>5285937500</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F49" t="n">
-        <v>-5.840256217823335</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.3755070902972269</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1743297089423</v>
+        <v>1944153476.284928</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
+          <t>celestia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>22.30136333714398</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8402986.17092145</v>
+        <v>579488884.7562951</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/celestia</t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>-2.653674354782696</v>
-      </c>
-      <c r="G50" t="n">
-        <v>22.46080518153678</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1743297089423</v>
+        <v>1914708485.38589</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIA</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
+          <t>gatetoken</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="D51" t="n">
-        <v>3.212281851458217</v>
-      </c>
-      <c r="E51" t="n">
-        <v>32496108.21636644</v>
+        <v>85826628.27673994</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>-6.508465078754236</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.273771767168606</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1743297089423</v>
+        <v>1912748173.46354</v>
       </c>
     </row>
     <row r="52">
@@ -1983,26 +1873,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RENDER</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>644168762</v>
+          <t>render</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="D52" t="n">
-        <v>3.480388051229566</v>
-      </c>
-      <c r="E52" t="n">
-        <v>44847856.33745009</v>
+        <v>517716590.0562826</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>-7.678750092370467</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.596944400112978</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1743297089423</v>
+        <v>1827864130.96871</v>
       </c>
     </row>
     <row r="53">
@@ -2013,86 +1901,80 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
+          <t>filecoin</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="D53" t="n">
-        <v>2.735973682964012</v>
-      </c>
-      <c r="E53" t="n">
-        <v>60914112.01474593</v>
+        <v>646143249</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://protocol.ai</t>
+        </is>
       </c>
       <c r="F53" t="n">
-        <v>-3.585678841324242</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.774611319132584</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1743297089423</v>
+        <v>1783390606.682522</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KAS</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>28704026601</v>
+          <t>cosmos</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="D54" t="n">
-        <v>0.0642964576819243</v>
-      </c>
-      <c r="E54" t="n">
-        <v>45257356.04440505</v>
+        <v>390934204</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>-8.014852462378961</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.0649115868391312</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1743297089423</v>
+        <v>1683788927.313354</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ATOM</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
+          <t>kaspa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="D55" t="n">
-        <v>4.232697784274436</v>
-      </c>
-      <c r="E55" t="n">
-        <v>54558054.13450658</v>
+        <v>25942485466.10235</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://explorer.kaspa.org/</t>
+        </is>
       </c>
       <c r="F55" t="n">
-        <v>-6.716694956653594</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4.375891895877328</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1743297089423</v>
+        <v>1673393918.462027</v>
       </c>
     </row>
     <row r="56">
@@ -2103,26 +1985,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALGO</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>10000000000</v>
+          <t>algorand</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1843582935250483</v>
-      </c>
-      <c r="E56" t="n">
-        <v>44950777.34959612</v>
+        <v>8530769996.221781</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://algoexplorer.io/</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>-7.522938270177661</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.1877839629998194</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1743297089423</v>
+        <v>1558994329.648113</v>
       </c>
     </row>
     <row r="57">
@@ -2133,26 +2013,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ARB</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
+          <t>arbitrum</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="D57" t="n">
-        <v>0.3337681418140623</v>
-      </c>
-      <c r="E57" t="n">
-        <v>73495471.42484793</v>
+        <v>4617913336</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+        </is>
       </c>
       <c r="F57" t="n">
-        <v>-4.089026656567444</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.3342787286153585</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1743297089423</v>
+        <v>1540384598.042386</v>
       </c>
     </row>
     <row r="58">
@@ -2163,26 +2041,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEXE</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
+          <t>dexe</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="D58" t="n">
-        <v>17.52388946628782</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12408498.79721028</v>
+        <v>83733353.16057506</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>-4.910961552126381</v>
-      </c>
-      <c r="G58" t="n">
-        <v>18.0010427894502</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1743297089423</v>
+        <v>1474887064.736172</v>
       </c>
     </row>
     <row r="59">
@@ -2193,26 +2069,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3175000000</v>
+          <t>sonic (prev. ftm)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="D59" t="n">
-        <v>0.4898708196738049</v>
-      </c>
-      <c r="E59" t="n">
-        <v>94586902.37159176</v>
+        <v>2880000000</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>sonicscan.org</t>
+        </is>
       </c>
       <c r="F59" t="n">
-        <v>-9.475287569623987</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.5009069681711168</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1743297089423</v>
+        <v>1409566141.783716</v>
       </c>
     </row>
     <row r="60">
@@ -2223,26 +2097,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
+          <t>story</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="D60" t="n">
-        <v>5.29543645381861</v>
-      </c>
-      <c r="E60" t="n">
-        <v>34551655.5949595</v>
+        <v>258745395</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>www.storyscan.xyz</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>-3.290323686465688</v>
-      </c>
-      <c r="G60" t="n">
-        <v>5.293664393258978</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1743297089423</v>
+        <v>1367199664.467321</v>
       </c>
     </row>
     <row r="61">
@@ -2253,26 +2125,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KCS</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>200000000</v>
+          <t>kucoin token</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="D61" t="n">
-        <v>11.07150030176666</v>
-      </c>
-      <c r="E61" t="n">
-        <v>641288.7701626321</v>
+        <v>122543917.8513356</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+        </is>
       </c>
       <c r="F61" t="n">
-        <v>-0.8619525572045404</v>
-      </c>
-      <c r="G61" t="n">
-        <v>11.07424464591755</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1743297089423</v>
+        <v>1358654517.041746</v>
       </c>
     </row>
     <row r="62">
@@ -2283,26 +2153,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JUP</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>3000000000</v>
+          <t>jupiter</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="D62" t="n">
-        <v>0.4771304541329743</v>
-      </c>
-      <c r="E62" t="n">
-        <v>26160665.64849852</v>
+        <v>2690911111.1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+        </is>
       </c>
       <c r="F62" t="n">
-        <v>-4.431489448361488</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.471647679797115</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1743297089423</v>
+        <v>1300386060.123636</v>
       </c>
     </row>
     <row r="63">
@@ -2313,26 +2181,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
+          <t>optimism</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7692184030064616</v>
-      </c>
-      <c r="E63" t="n">
-        <v>57286716.03179077</v>
+        <v>1620705846</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+        </is>
       </c>
       <c r="F63" t="n">
-        <v>-7.96111694338625</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.7850005165233475</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1743297089423</v>
+        <v>1220425171.5659</v>
       </c>
     </row>
     <row r="64">
@@ -2343,86 +2209,80 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FET</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>2630547141</v>
+          <t>artificial superintelligence alliance</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="D64" t="n">
-        <v>0.472712210363298</v>
-      </c>
-      <c r="E64" t="n">
-        <v>55509764.42245329</v>
+        <v>2520000000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>-7.216216619898908</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.4819306928483113</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1743297089423</v>
+        <v>1193721337.899964</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MOVE</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>10000000000</v>
+          <t>maker</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="D65" t="n">
-        <v>0.448974683147663</v>
-      </c>
-      <c r="E65" t="n">
-        <v>77037706.20009713</v>
+        <v>848074.4183746701</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/Maker</t>
+        </is>
       </c>
       <c r="F65" t="n">
-        <v>-7.22043603089161</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.4732417511268104</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1743297089423</v>
+        <v>1083807750.822358</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MKR</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1000000</v>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="D66" t="n">
-        <v>1293.693815483873</v>
-      </c>
-      <c r="E66" t="n">
-        <v>38646153.48055481</v>
+        <v>2450000000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>-11.11440358369486</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1365.665191743982</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1743297089423</v>
+        <v>1069253786.784113</v>
       </c>
     </row>
     <row r="67">
@@ -2433,26 +2293,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XDC</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
+          <t>xdc network</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0681947718721061</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8141779.505972645</v>
+        <v>15692654414.55</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>-2.065145784434361</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.0687431017553435</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1743297089423</v>
+        <v>1043799394.384574</v>
       </c>
     </row>
     <row r="68">
@@ -2463,56 +2321,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IMX</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2000000000</v>
+          <t>immutable x</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="D68" t="n">
-        <v>0.5521243630488309</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10365674.7558606</v>
+        <v>1768317543.39</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>-5.189069564354593</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.5607393093750623</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1743297089423</v>
+        <v>971463395.1974064</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WBNB</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
+          <t>worldcoin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="D69" t="n">
-        <v>607.697966198818</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11373689.10114176</v>
+        <v>1214526120.034464</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>-2.820048211355692</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1743297089423</v>
+        <v>954345596.6503832</v>
       </c>
     </row>
     <row r="70">
@@ -2523,146 +2377,136 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>STX</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1818000000</v>
+          <t>stacks</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="D70" t="n">
-        <v>0.6265865247348464</v>
-      </c>
-      <c r="E70" t="n">
-        <v>19027774.49477397</v>
+        <v>1519229293.83264</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://explorer.stacks.co/</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>-4.945153182347511</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.6265622914257434</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1743297089423</v>
+        <v>951776872.6014463</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WLD</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
+          <t>wrapped bnb</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="D71" t="n">
-        <v>0.7788064684079382</v>
-      </c>
-      <c r="E71" t="n">
-        <v>72832124.25389594</v>
+        <v>1582884.53984804</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
       </c>
       <c r="F71" t="n">
-        <v>-7.730328906856132</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.7984820503301564</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1743297089423</v>
+        <v>950892872.421708</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USD0</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
+          <t>eos</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9976964985523024</v>
-      </c>
-      <c r="E72" t="n">
-        <v>22220725.70046323</v>
+        <v>1555708008.4996</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://bloks.io/</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>-0.002284651077521</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1743297089423</v>
+        <v>939381108.326044</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BONK</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
+          <t>usual usd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="D73" t="n">
-        <v>1.13640330586e-05</v>
-      </c>
-      <c r="E73" t="n">
-        <v>53794434.80229677</v>
+        <v>899129894.3078742</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
       </c>
       <c r="F73" t="n">
-        <v>-7.858075964310598</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.15118747924e-05</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1743297089423</v>
+        <v>897098518.101324</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
+          <t>bonk</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="D74" t="n">
-        <v>0.1807302139807161</v>
-      </c>
-      <c r="E74" t="n">
-        <v>48755190.3846544</v>
+        <v>77894175221082.55</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>-6.015983318734015</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.1817410755645439</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1743297089423</v>
+        <v>885864781.8351067</v>
       </c>
     </row>
     <row r="75">
@@ -2673,176 +2517,164 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
+          <t>the graph</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0893984898375097</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10822210.61181171</v>
+        <v>9775189789.318211</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>-6.018116139362933</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.09110736386917929</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1743297089423</v>
+        <v>876926157.9498842</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INJ</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>100000000</v>
+          <t>sei</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="D76" t="n">
-        <v>8.77383560231317</v>
-      </c>
-      <c r="E76" t="n">
-        <v>46150998.90039462</v>
+        <v>4882361111</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>-4.956532422652955</v>
-      </c>
-      <c r="G76" t="n">
-        <v>8.873629055578359</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1743297089423</v>
+        <v>872215392.1541442</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EOS</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>2100000000</v>
+          <t>injective</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5474245526509444</v>
-      </c>
-      <c r="E77" t="n">
-        <v>59410841.55956086</v>
+        <v>98970935.41</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>-3.722061381327582</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.5606892622302188</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1743297089423</v>
+        <v>870536980.8628373</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QNT</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>14881364</v>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="D78" t="n">
-        <v>69.64116766977109</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10711992.15846364</v>
+        <v>381867255.144574</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F78" t="n">
-        <v>-2.717335748385156</v>
-      </c>
-      <c r="G78" t="n">
-        <v>69.28114016879941</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1743297089423</v>
+        <v>864185142.9753559</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>THETA</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1000000000</v>
+          <t>quant</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="D79" t="n">
-        <v>0.8360399723196338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9499187.305290477</v>
+        <v>12072738</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>-6.193998374036033</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.8496616412330231</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1743297089423</v>
+        <v>843429263.2225834</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FORM</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>580000000</v>
+          <t>theta network</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="D80" t="n">
-        <v>2.174049400562978</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4020821.143730174</v>
+        <v>1000000000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://explorer.thetatoken.org/</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>-4.243700945416238</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1743297089423</v>
+        <v>828708154.0332394</v>
       </c>
     </row>
     <row r="81">
@@ -2853,26 +2685,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FLR</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
+          <t>flare</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="D81" t="n">
-        <v>0.0132326225574872</v>
-      </c>
-      <c r="E81" t="n">
-        <v>12040100.98384464</v>
+        <v>60983663777.01</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://flare-explorer.flare.network/</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>-3.688709851325987</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0133463487595621</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1743297089423</v>
+        <v>811028179.4564723</v>
       </c>
     </row>
     <row r="82">
@@ -2883,26 +2713,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
+          <t>paypal usd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9983127064537924</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8947105.451813435</v>
+        <v>802871349.4263151</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+        </is>
       </c>
       <c r="F82" t="n">
-        <v>-0.1815774802922565</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.9984617540967416</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1743297089423</v>
+        <v>801668858.5420231</v>
       </c>
     </row>
     <row r="83">
@@ -2913,26 +2741,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BERA</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
+          <t>berachain</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="D83" t="n">
-        <v>7.397914870883448</v>
-      </c>
-      <c r="E83" t="n">
-        <v>147650655.9995573</v>
+        <v>107480000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sin datos</t>
+        </is>
       </c>
       <c r="F83" t="n">
-        <v>-16.42561681298717</v>
-      </c>
-      <c r="G83" t="n">
-        <v>8.015196342727146</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1743297089423</v>
+        <v>796326003.0156102</v>
       </c>
     </row>
     <row r="84">
@@ -2943,26 +2769,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LDO</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
+          <t>lido dao</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8781661326532031</v>
-      </c>
-      <c r="E84" t="n">
-        <v>39861790.59051279</v>
+        <v>897877243.8587133</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>-6.443070896768138</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.9024296962588342</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1743297089423</v>
+        <v>780317062.593581</v>
       </c>
     </row>
     <row r="85">
@@ -2973,26 +2797,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XAUT</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
+          <t>tether gold</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="D85" t="n">
-        <v>3113.811825636049</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6521254.651175963</v>
+        <v>246524</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+        </is>
       </c>
       <c r="F85" t="n">
-        <v>0.240516074570105</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3111.97268421377</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1743297089423</v>
+        <v>765659590.4938563</v>
       </c>
     </row>
     <row r="86">
@@ -3003,26 +2825,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NEXO</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
+          <t>nexo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="D86" t="n">
-        <v>1.078356661010723</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3354281.476515043</v>
+        <v>646145839.5746847</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>-3.669043980278602</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.087284605181189</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1743297089423</v>
+        <v>704079373.1665961</v>
       </c>
     </row>
     <row r="87">
@@ -3033,26 +2853,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JTO</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
+          <t>jito</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="D87" t="n">
-        <v>2.206260012016696</v>
-      </c>
-      <c r="E87" t="n">
-        <v>13501738.88255338</v>
+        <v>310420802.2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>-1.05725926064315</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.16381071840535</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1743297089423</v>
+        <v>685468164.5941108</v>
       </c>
     </row>
     <row r="88">
@@ -3063,26 +2881,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>50000000000</v>
+          <t>gala</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="D88" t="n">
-        <v>0.0154519859083297</v>
-      </c>
-      <c r="E88" t="n">
-        <v>38670584.455144</v>
+        <v>43759808799.60193</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>-7.244844529664358</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.0155755438700855</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1743297089423</v>
+        <v>680364927.73103</v>
       </c>
     </row>
     <row r="89">
@@ -3093,26 +2909,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XTZ</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
+          <t>tezos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="D89" t="n">
-        <v>0.6498973145992833</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9784674.578189235</v>
+        <v>1036876078.864371</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://tzkt.io/</t>
+        </is>
       </c>
       <c r="F89" t="n">
-        <v>-4.083726145111177</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.6629573109917954</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1743297089423</v>
+        <v>678818981.6070354</v>
       </c>
     </row>
     <row r="90">
@@ -3123,26 +2937,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAND</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
+          <t>the sandbox</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="D90" t="n">
-        <v>0.27001769406763</v>
-      </c>
-      <c r="E90" t="n">
-        <v>15437541.00032419</v>
+        <v>2481357126.223322</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+        </is>
       </c>
       <c r="F90" t="n">
-        <v>-3.694955399782808</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.2719935528067818</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1743297089423</v>
+        <v>673989427.5158484</v>
       </c>
     </row>
     <row r="91">
@@ -3153,26 +2965,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
+          <t>bittorrent [new]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="D91" t="n">
-        <v>6.726925356e-07</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1119582.55069419</v>
+        <v>986061142857000</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://tronscan.org/#/token/1002000</t>
+        </is>
       </c>
       <c r="F91" t="n">
-        <v>-1.144621068620583</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6.785067114e-07</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1743297089423</v>
+        <v>662896208.4566578</v>
       </c>
     </row>
     <row r="92">
@@ -3183,26 +2993,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAXG</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
+          <t>pax gold</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="D92" t="n">
-        <v>3120.391715511204</v>
-      </c>
-      <c r="E92" t="n">
-        <v>47179474.36029996</v>
+        <v>210371.22</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+        </is>
       </c>
       <c r="F92" t="n">
-        <v>0.8938231713416683</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3106.213260630469</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1743297089423</v>
+        <v>658968358.7340297</v>
       </c>
     </row>
     <row r="93">
@@ -3213,86 +3021,80 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IOTA</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
+          <t>iota</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="D93" t="n">
-        <v>0.1744014464748732</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11074007.92505747</v>
+        <v>3688810566</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://thetangle.org/</t>
+        </is>
       </c>
       <c r="F93" t="n">
-        <v>-5.04205547579715</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.1749882961790816</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1743297089423</v>
+        <v>637384765.0071368</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>3030303030.299</v>
+          <t>bitcoin sv</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="D94" t="n">
-        <v>0.4917164978778142</v>
-      </c>
-      <c r="E94" t="n">
-        <v>44371785.7632005</v>
+        <v>19844753.125</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://bsvexplorer.io/</t>
+        </is>
       </c>
       <c r="F94" t="n">
-        <v>-4.328137202239909</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.4883480961803173</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1743297089423</v>
+        <v>633674877.0049849</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BSV</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
+          <t>curve dao token</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="D95" t="n">
-        <v>31.16992377200446</v>
-      </c>
-      <c r="E95" t="n">
-        <v>8035242.495236797</v>
+        <v>1307661214</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+        </is>
       </c>
       <c r="F95" t="n">
-        <v>-5.36077167890005</v>
-      </c>
-      <c r="G95" t="n">
-        <v>32.11343468342404</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1743297089423</v>
+        <v>627354773.718819</v>
       </c>
     </row>
     <row r="96">
@@ -3303,26 +3105,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIA</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
+          <t>kaia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="D96" t="n">
-        <v>0.1025970098339907</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5963499.473332029</v>
+        <v>5966455361.82</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.kaiascan.io/</t>
+        </is>
       </c>
       <c r="F96" t="n">
-        <v>-3.502170642702663</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.1034965879236058</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1743297089423</v>
+        <v>615611382.4723363</v>
       </c>
     </row>
     <row r="97">
@@ -3333,26 +3133,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CAKE</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>450000000</v>
+          <t>pancakeswap</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D97" t="n">
-        <v>2.000466894716783</v>
-      </c>
-      <c r="E97" t="n">
-        <v>60670783.59475005</v>
+        <v>301835405.9816226</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+        </is>
       </c>
       <c r="F97" t="n">
-        <v>-6.464626824762689</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2.008554710448774</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1743297089423</v>
+        <v>602971122.7621006</v>
       </c>
     </row>
     <row r="98">
@@ -3363,86 +3161,80 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLOW</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="D98" t="n">
-        <v>0.3778741654980206</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7847665.196937482</v>
+        <v>1572540589.319017</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://flowscan.org/</t>
+        </is>
       </c>
       <c r="F98" t="n">
-        <v>-4.156553228174255</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.3832745655695799</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1743297089423</v>
+        <v>601698908.446556</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZEC</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>21000000</v>
+          <t>helium</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="D99" t="n">
-        <v>36.46182859254305</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10442760.87399487</v>
+        <v>179760925.5581076</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://explorer.helium.com/</t>
+        </is>
       </c>
       <c r="F99" t="n">
-        <v>-1.744098459040662</v>
-      </c>
-      <c r="G99" t="n">
-        <v>36.03383640891963</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1743297089423</v>
+        <v>577243810.8613765</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HNT</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>223000000</v>
+          <t>zcash</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="D100" t="n">
-        <v>3.182219833676045</v>
-      </c>
-      <c r="E100" t="n">
-        <v>3766781.320410729</v>
+        <v>15886821</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://explorer.zcha.in/</t>
+        </is>
       </c>
       <c r="F100" t="n">
-        <v>1.83149482302352</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3.128121358251112</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1743297089423</v>
+        <v>575776967.8990471</v>
       </c>
     </row>
     <row r="101">
@@ -3453,26 +3245,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>100000000</v>
+          <t>ethereum name service</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="D101" t="n">
-        <v>15.880922078181</v>
-      </c>
-      <c r="E101" t="n">
-        <v>32715960.2208523</v>
+        <v>35599404.04</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+        </is>
       </c>
       <c r="F101" t="n">
-        <v>-5.272966071964917</v>
-      </c>
-      <c r="G101" t="n">
-        <v>16.16095663836915</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1743297089423</v>
+        <v>569792890.0385989</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19844090</v>
+        <v>19845709</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1645408213162.308</v>
+        <v>1639528365133.917</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120654453.5456346</v>
+        <v>120661946.5561552</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>219447239944.2114</v>
+        <v>217027307344.3245</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>144182349120.787</v>
+        <v>144034280963.4801</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144472528344.4948</v>
+        <v>143983896070.6564</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>125128539404.0488</v>
+        <v>118253432675.7567</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>87075359850.57246</v>
+        <v>85410795869.50671</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>512293807.5507926</v>
+        <v>512503882.2685171</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64173621326.06544</v>
+        <v>60990505066.92032</v>
       </c>
     </row>
     <row r="8">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60242525341.88815</v>
+        <v>60649816501.55631</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60263652571.4768</v>
+        <v>60710455106.51096</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148644126383.7052</v>
+        <v>148690796383.7052</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25192339632.77584</v>
+        <v>24483399831.01411</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35242104181.18973</v>
+        <v>35268011575.20344</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23723258891.01</v>
+        <v>22667528163.29645</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94994605853.76372</v>
+        <v>94985541388.86099</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21915590545.01772</v>
+        <v>22176014805.13853</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9367578.04514548</v>
+        <v>9378159.597108899</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17013824733.87183</v>
+        <v>16879794298.3194</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10598806295.64475</v>
+        <v>10636821595.39588</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2484528578.654807</v>
+        <v>2461769440.370948</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -826,18 +826,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9472862912.832815</v>
+        <v>9468226533.443558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,26 +846,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>657099970.4527867</v>
+        <v>923812201.9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8958597212.633591</v>
+        <v>8620721841.209597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>unus sed leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -874,15 +874,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>923836969.9</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8901839290.092813</v>
+        <v>8497966177.631245</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30787178407.49416</v>
+        <v>30777463547.83699</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -910,18 +910,18 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8265176800.009464</v>
+        <v>7968470554.041636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -930,26 +930,26 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>414844783.0787662</v>
+        <v>3249982900.458888</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8051635600.150704</v>
+        <v>7499759647.185512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -958,15 +958,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3169845047.483888</v>
+        <v>414902635.884638</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7482713340.319256</v>
+        <v>7491642400.823088</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>589250822785832.4</v>
+        <v>589250687620781.9</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7426139533.025967</v>
+        <v>7130582238.954036</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7199344865.450047</v>
+        <v>6808477142.708096</v>
       </c>
     </row>
     <row r="22">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6524123028.593897</v>
+        <v>6198760373.188729</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1070,15 +1070,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1522267060</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6207093548.684222</v>
+        <v>6115177710.771641</v>
       </c>
     </row>
     <row r="24">
@@ -1106,18 +1106,18 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6155101635.752826</v>
+        <v>6073976288.754498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1126,15 +1126,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>974778351.8199997</v>
+        <v>1522267060</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6075993196.303693</v>
+        <v>6042437419.121837</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19849115.625</v>
+        <v>19850634.375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6056506018.194562</v>
+        <v>5858474421.047663</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5500491881.54157</v>
+        <v>5394449264.133169</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5361791683.717277</v>
+        <v>5362386872.32885</v>
       </c>
     </row>
     <row r="29">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5247255782.710276</v>
+        <v>5260950968.360694</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5246902513.331624</v>
+        <v>5258656650.563245</v>
       </c>
     </row>
     <row r="30">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6773814332.260494</v>
+        <v>6794101040.343596</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5167207446.90474</v>
+        <v>4455351871.321973</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4201769039.529313</v>
+        <v>3964069991.407324</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4008181468.86502</v>
+        <v>3940688577.432065</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3749159627.741323</v>
+        <v>3686577654.525324</v>
       </c>
     </row>
     <row r="34">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604031596.593968</v>
+        <v>604422794.1445551</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1386,18 +1386,18 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3195108080.106734</v>
+        <v>3083077512.117356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1406,26 +1406,26 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1198396448</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3160198965.96925</v>
+        <v>2977160679.524661</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>420689899653543.6</v>
+        <v>1199000741</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2967439521.620103</v>
+        <v>2931520640.878872</v>
       </c>
     </row>
     <row r="37">
@@ -1470,18 +1470,18 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2912819056.666005</v>
+        <v>2830881507.077088</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1490,26 +1490,26 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26571560696</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2769337703.796009</v>
+        <v>2612596235.787368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1518,26 +1518,26 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3364694382.836841</v>
+        <v>26571560696</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2699772651.669368</v>
+        <v>2550846518.800735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>482076932.8747825</v>
+        <v>2601315490.163333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2591823755.868845</v>
+        <v>2550174963.298119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,26 +1574,26 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2588088088.167816</v>
+        <v>3159107529</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2583960590.510273</v>
+        <v>2500019195.704441</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3159107529</v>
+        <v>482284285.8834832</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2527930536.210728</v>
+        <v>2448383745.129295</v>
       </c>
     </row>
     <row r="43">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>151321540.2914661</v>
+        <v>151367967.6932335</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2518538271.218329</v>
+        <v>2431759469.258697</v>
       </c>
     </row>
     <row r="44">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15093850.10196759</v>
+        <v>15096506.17915445</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2480477522.312798</v>
+        <v>2285253833.838017</v>
       </c>
     </row>
     <row r="45">
@@ -1694,18 +1694,18 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2125677493.863783</v>
+        <v>1935203355.764831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>199999429.103735</v>
+        <v>85828689.43341725</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2035525360.106597</v>
+        <v>1910046998.573512</v>
       </c>
     </row>
     <row r="47">
@@ -1750,18 +1750,18 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1964184580.03706</v>
+        <v>1854343290.818481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1770,26 +1770,26 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8534124</v>
+        <v>199999427.480758</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1945000796.773782</v>
+        <v>1846478192.707925</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1798,26 +1798,26 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5285937500</v>
+        <v>8546962</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1944153476.284928</v>
+        <v>1820962687.457499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1826,26 +1826,26 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>579488884.7562951</v>
+        <v>5285937500</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1914708485.38589</v>
+        <v>1776662918.48672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1854,15 +1854,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>85826628.27673994</v>
+        <v>647135072</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1912748173.46354</v>
+        <v>1748026602.933024</v>
       </c>
     </row>
     <row r="52">
@@ -1890,18 +1890,18 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1827864130.96871</v>
+        <v>1717476317.117153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1910,15 +1910,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>646143249</v>
+        <v>584318047.263137</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1783390606.682522</v>
+        <v>1705606928.616612</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1683788927.313354</v>
+        <v>1639056684.249118</v>
       </c>
     </row>
     <row r="55">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25942485466.10235</v>
+        <v>25960683651.37431</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1673393918.462027</v>
+        <v>1634301649.713906</v>
       </c>
     </row>
     <row r="56">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8530769996.221781</v>
+        <v>8537381523.817804</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1558994329.648113</v>
+        <v>1509418092.410245</v>
       </c>
     </row>
     <row r="57">
@@ -2030,18 +2030,18 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1540384598.042386</v>
+        <v>1419970173.104204</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2050,26 +2050,26 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83733353.16057506</v>
+        <v>2880000000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1474887064.736172</v>
+        <v>1354992622.087925</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sonic (prev. ftm)</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2078,26 +2078,26 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2880000000</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1409566141.783716</v>
+        <v>1332707105.008601</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2106,26 +2106,26 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>258745395</v>
+        <v>1556419102.7764</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1367199664.467321</v>
+        <v>1243476602.128556</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2134,26 +2134,26 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>122543917.8513356</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1358654517.041746</v>
+        <v>1216907074.778836</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2162,26 +2162,26 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2690911111.1</v>
+        <v>1620705846</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1300386060.123636</v>
+        <v>1142899077.502805</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>story</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2190,26 +2190,26 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1620705846</v>
+        <v>258992823</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1220425171.5659</v>
+        <v>1123963831.09167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>artificial superintelligence alliance</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2218,26 +2218,26 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2520000000</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1193721337.899964</v>
+        <v>1087845997.633965</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>artificial superintelligence alliance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2246,26 +2246,26 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>848074.4183746701</v>
+        <v>2520000000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1083807750.822358</v>
+        <v>1087206379.665458</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2450000000</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1069253786.784113</v>
+        <v>1025229816.153528</v>
       </c>
     </row>
     <row r="67">
@@ -2310,18 +2310,18 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1043799394.384574</v>
+        <v>1019376585.622817</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>wrapped bnb</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2330,26 +2330,26 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1768317543.39</v>
+        <v>1582884.53984804</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>971463395.1974064</v>
+        <v>936777558.5390563</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>worldcoin</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1214526120.034464</v>
+        <v>2450000000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2366,18 +2366,18 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>954345596.6503832</v>
+        <v>931613473.4540864</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2386,26 +2386,26 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1519229293.83264</v>
+        <v>1223649706.21482</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>951776872.6014463</v>
+        <v>885343051.8002102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>wrapped bnb</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2414,26 +2414,26 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1582884.53984804</v>
+        <v>1519731982.98976</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>950892872.421708</v>
+        <v>877228249.2018611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2442,26 +2442,26 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1555708008.4996</v>
+        <v>872045271.8289261</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>939381108.326044</v>
+        <v>870092925.1567833</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2470,26 +2470,26 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>899129894.3078742</v>
+        <v>77894175221082.55</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>897098518.101324</v>
+        <v>866119281.4611833</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>77894175221082.55</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2506,18 +2506,18 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>885864781.8351067</v>
+        <v>849353385.9087651</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>the graph</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2526,26 +2526,26 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9775189789.318211</v>
+        <v>381867255.144574</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>876926157.9498842</v>
+        <v>833596261.6203269</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4882361111</v>
+        <v>98970935.41</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>872215392.1541442</v>
+        <v>827402248.4369071</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2582,26 +2582,26 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>98970935.41</v>
+        <v>9775189789.318211</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>870536980.8628373</v>
+        <v>811294638.1934762</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>381867255.144574</v>
+        <v>4882361111</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>864185142.9753559</v>
+        <v>806429664.2882833</v>
       </c>
     </row>
     <row r="79">
@@ -2646,18 +2646,18 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>843429263.2225834</v>
+        <v>800796059.1185056</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>theta network</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2666,26 +2666,26 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1000000000</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>828708154.0332394</v>
+        <v>790584621.3156202</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2694,26 +2694,26 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60983663777.01</v>
+        <v>246524</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>811028179.4564723</v>
+        <v>781997690.0747724</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2722,26 +2722,26 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>802871349.4263151</v>
+        <v>1000000000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>801668858.5420231</v>
+        <v>774262814.1280754</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2750,15 +2750,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>107480000</v>
+        <v>739265391.674938</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>796326003.0156102</v>
+        <v>737713939.0131669</v>
       </c>
     </row>
     <row r="84">
@@ -2786,18 +2786,18 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>780317062.593581</v>
+        <v>736136852.886333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tether gold</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2806,26 +2806,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>246524</v>
+        <v>107480000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>765659590.4938563</v>
+        <v>706996649.343044</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2834,26 +2834,26 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>646145839.5746847</v>
+        <v>1037550271.786468</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>704079373.1665961</v>
+        <v>671528079.5623716</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2862,26 +2862,26 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>310420802.2</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>685468164.5941108</v>
+        <v>670432227.1842363</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2890,26 +2890,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>43759808799.60193</v>
+        <v>210371.22</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>680364927.73103</v>
+        <v>667778818.3984549</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2918,26 +2918,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1036876078.864371</v>
+        <v>311886262.1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>678818981.6070354</v>
+        <v>654917431.1518688</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2946,26 +2946,26 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2481357126.223322</v>
+        <v>1308683113</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>673989427.5158484</v>
+        <v>646436402.9773983</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2974,26 +2974,26 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>986061142857000</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>662896208.4566578</v>
+        <v>640375514.1572475</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3002,26 +3002,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>210371.22</v>
+        <v>43804947221.80908</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>658968358.7340297</v>
+        <v>634539418.3257244</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3030,26 +3030,26 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3688810566</v>
+        <v>986061142857000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>637384765.0071368</v>
+        <v>623368561.8335109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3058,26 +3058,26 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>19844753.125</v>
+        <v>15886821</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>633674877.0049849</v>
+        <v>620064789.6743512</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3086,26 +3086,26 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1307661214</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>627354773.718819</v>
+        <v>614087519.9211075</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3114,26 +3114,26 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5966455361.82</v>
+        <v>19846218.75</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>615611382.4723363</v>
+        <v>607687878.8539023</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3142,15 +3142,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301835405.9816226</v>
+        <v>3707948285</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>602971122.7621006</v>
+        <v>601775482.3818355</v>
       </c>
     </row>
     <row r="98">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1572540589.319017</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3178,18 +3178,18 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>601698908.446556</v>
+        <v>580342144.3433431</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3198,26 +3198,26 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>179760925.5581076</v>
+        <v>290814662.067804</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>577243810.8613765</v>
+        <v>551352890.8105441</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum name service</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3226,26 +3226,26 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>15886821</v>
+        <v>35599404.04</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>575776967.8990471</v>
+        <v>537733564.046931</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3254,15 +3254,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>35599404.04</v>
+        <v>295394509.7510309</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>569792890.0385989</v>
+        <v>534180343.4006736</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19845709</v>
+        <v>19846231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1639528365133.917</v>
+        <v>1645455068329.599</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120661946.5561552</v>
+        <v>120666956.0999142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>217027307344.3245</v>
+        <v>217347221316.2245</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>144034280963.4801</v>
+        <v>144086679997.8651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>143983896070.6564</v>
+        <v>144232177004.9569</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58205697378</v>
+        <v>58274974538</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>118253432675.7567</v>
+        <v>119781574734.2609</v>
       </c>
     </row>
     <row r="6">
@@ -602,18 +602,18 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85410795869.50671</v>
+        <v>85245710974.68388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,26 +622,26 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>512503882.2685171</v>
+        <v>60870184064.31027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60990505066.92032</v>
+        <v>60787223223.35472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -650,15 +650,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60649816501.55631</v>
+        <v>514450631.2156934</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60710455106.51096</v>
+        <v>59430679232.17687</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148690796383.7052</v>
+        <v>148705696383.7053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24483399831.01411</v>
+        <v>24022255961.98788</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22667528163.29645</v>
+        <v>22833704989.2944</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94985541388.86099</v>
+        <v>94982643679.60722</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22176014805.13853</v>
+        <v>22679918094.50926</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9378159.597108899</v>
+        <v>9374205.46261983</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16879794298.3194</v>
+        <v>16853468197.57886</v>
       </c>
     </row>
     <row r="13">
@@ -798,18 +798,18 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10636821595.39588</v>
+        <v>10659287443.14686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,26 +818,26 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2461769440.370948</v>
+        <v>923803780.9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9468226533.443558</v>
+        <v>8801225034.959442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>unus sed leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,15 +846,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>923812201.9</v>
+        <v>2473007671.382806</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8620721841.209597</v>
+        <v>8694959472.116371</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8497966177.631245</v>
+        <v>8388795396.303823</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30777463547.83699</v>
+        <v>30778563460.85003</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -910,18 +910,18 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7968470554.041636</v>
+        <v>7982481164.935516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -930,26 +930,26 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3249982900.458888</v>
+        <v>414932590.3611275</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7499759647.185512</v>
+        <v>7507349560.392557</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -958,15 +958,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>414902635.884638</v>
+        <v>3249982900.458888</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7491642400.823088</v>
+        <v>7190619044.423847</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>589250687620781.9</v>
+        <v>589250651184905.6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7130582238.954036</v>
+        <v>7149207058.835785</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6808477142.708096</v>
+        <v>6769945155.097817</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6198760373.188729</v>
+        <v>6276792885.955726</v>
       </c>
     </row>
     <row r="23">
@@ -1078,18 +1078,18 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6115177710.771641</v>
+        <v>6196028586.126849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wrapped eth</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1098,26 +1098,26 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3375317.5926469</v>
+        <v>1522267060</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6073976288.754498</v>
+        <v>6122622118.242289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>wrapped eth</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1126,15 +1126,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1522267060</v>
+        <v>3375317.5926469</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6042437419.121837</v>
+        <v>6087581874.875412</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19850634.375</v>
+        <v>19851131.25</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1162,18 +1162,18 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5858474421.047663</v>
+        <v>5981333587.628716</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bitget token</t>
+          <t>bitcoin bep2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1182,26 +1182,26 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1200000000</v>
+        <v>65207.71839618</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5394449264.133169</v>
+        <v>5406915597.290776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>bitget token</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1210,26 +1210,26 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5365382702.664872</v>
+        <v>1200000000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5362386872.32885</v>
+        <v>5384848075.618716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethena usde</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1238,26 +1238,26 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5260950968.360694</v>
+        <v>5365382702.664872</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5258656650.563245</v>
+        <v>5364447321.737244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1266,15 +1266,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6794101040.343596</v>
+        <v>5252116023.595393</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4455351871.321973</v>
+        <v>5249076389.421836</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3964069991.407324</v>
+        <v>3945453821.585091</v>
       </c>
     </row>
     <row r="32">
@@ -1330,18 +1330,18 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3940688577.432065</v>
+        <v>3931065257.520929</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1350,26 +1350,26 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>628494054.71</v>
+        <v>6794101040.343596</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3686577654.525324</v>
+        <v>3826504636.55301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1378,26 +1378,26 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604422794.1445551</v>
+        <v>628494054.71</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3083077512.117356</v>
+        <v>3670315024.796194</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1406,15 +1406,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>420689899653543.6</v>
+        <v>604472162.4773237</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2977160679.524661</v>
+        <v>3027303615.549763</v>
       </c>
     </row>
     <row r="36">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1199000741</v>
+        <v>1199263060</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1442,18 +1442,18 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2931520640.878872</v>
+        <v>2981082309.786353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1462,26 +1462,26 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>60000000</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2830881507.077088</v>
+        <v>2828676423.398164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1490,26 +1490,26 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3364694382.836841</v>
+        <v>60000000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2612596235.787368</v>
+        <v>2810953916.108098</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1518,26 +1518,26 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>26571560696</v>
+        <v>3159107529</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2550846518.800735</v>
+        <v>2591081900.313638</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2601315490.163333</v>
+        <v>26571560696</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2550174963.298119</v>
+        <v>2510011282.610254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3159107529</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2500019195.704441</v>
+        <v>2503052193.536201</v>
       </c>
     </row>
     <row r="42">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>482284285.8834832</v>
+        <v>482976259.2016464</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2448383745.129295</v>
+        <v>2477431953.28222</v>
       </c>
     </row>
     <row r="43">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>151367967.6932335</v>
+        <v>151382010.9572335</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1638,18 +1638,18 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2431759469.258697</v>
+        <v>2439870589.543532</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1658,26 +1658,26 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15096506.17915445</v>
+        <v>2364076402.993331</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2285253833.838017</v>
+        <v>2351176923.70078</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1686,26 +1686,26 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10392099602.65343</v>
+        <v>15096908.25633893</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1935203355.764831</v>
+        <v>2251930389.419629</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1714,26 +1714,26 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>85828689.43341725</v>
+        <v>10392099602.65343</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1910046998.573512</v>
+        <v>1976558181.292787</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1742,15 +1742,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>85985041177</v>
+        <v>85828710.29596004</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1854343290.818481</v>
+        <v>1891153862.658108</v>
       </c>
     </row>
     <row r="48">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>199999427.480758</v>
+        <v>199999426.984543</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1778,18 +1778,18 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1846478192.707925</v>
+        <v>1888555568.331376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1798,26 +1798,26 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8546962</v>
+        <v>85985041177</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1820962687.457499</v>
+        <v>1864437882.203944</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1826,26 +1826,26 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5285937500</v>
+        <v>8554006</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1776662918.48672</v>
+        <v>1846463934.590856</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1854,26 +1854,26 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>647135072</v>
+        <v>390934204</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1748026602.933024</v>
+        <v>1830111374.674361</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1882,26 +1882,26 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>517716590.0562826</v>
+        <v>647135072</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1717476317.117153</v>
+        <v>1758385592.36331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1910,26 +1910,26 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>584318047.263137</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1705606928.616612</v>
+        <v>1695536295.247552</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1938,26 +1938,26 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>390934204</v>
+        <v>25966463752.85378</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1639056684.249118</v>
+        <v>1672752758.847386</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1966,26 +1966,26 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25960683651.37431</v>
+        <v>585525337.889847</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1634301649.713906</v>
+        <v>1662776684.122552</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1994,26 +1994,26 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8537381523.817804</v>
+        <v>5285937500</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1509418092.410245</v>
+        <v>1655459686.522244</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2022,26 +2022,26 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4617913336</v>
+        <v>8535611719.937347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1419970173.104204</v>
+        <v>1536756629.709208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sonic (prev. ftm)</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2050,26 +2050,26 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2880000000</v>
+        <v>4617913336</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1354992622.087925</v>
+        <v>1428742696.010017</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2078,15 +2078,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125043917.8513356</v>
+        <v>2880000000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1332707105.008601</v>
+        <v>1386303176.027496</v>
       </c>
     </row>
     <row r="60">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1556419102.7764</v>
+        <v>1556643195.5878</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2114,18 +2114,18 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1243476602.128556</v>
+        <v>1324481806.397239</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2134,26 +2134,26 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83733353.16057506</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1216907074.778836</v>
+        <v>1285356232.028005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2162,26 +2162,26 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1620705846</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1142899077.502805</v>
+        <v>1250463475.41805</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2190,15 +2190,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>258992823</v>
+        <v>1620705846</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1123963831.09167</v>
+        <v>1133837952.119644</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1087845997.633965</v>
+        <v>1092145367.243447</v>
       </c>
     </row>
     <row r="65">
@@ -2254,18 +2254,18 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1087206379.665458</v>
+        <v>1089463831.667597</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>story</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2690911111.1</v>
+        <v>259071202</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1025229816.153528</v>
+        <v>1086778652.242712</v>
       </c>
     </row>
     <row r="67">
@@ -2310,18 +2310,18 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1019376585.622817</v>
+        <v>1047134886.01604</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>wrapped bnb</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2330,26 +2330,26 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1582884.53984804</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>936777558.5390563</v>
+        <v>1036395025.000629</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>wrapped bnb</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2358,26 +2358,26 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2450000000</v>
+        <v>1582884.53984804</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>931613473.4540864</v>
+        <v>955007735.6766</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>worldcoin</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1223649706.21482</v>
+        <v>2450000000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2394,18 +2394,18 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>885343051.8002102</v>
+        <v>954913424.4212536</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2414,26 +2414,26 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1519731982.98976</v>
+        <v>1226340536.305477</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>877228249.2018611</v>
+        <v>929076727.5117805</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2442,15 +2442,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>872045271.8289261</v>
+        <v>1519909933.85237</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>870092925.1567833</v>
+        <v>883431904.5986801</v>
       </c>
     </row>
     <row r="73">
@@ -2478,18 +2478,18 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>866119281.4611833</v>
+        <v>848821198.1726248</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1768317543.39</v>
+        <v>845594423.8423951</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>849353385.9087651</v>
+        <v>843387801.7890285</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>833596261.6203269</v>
+        <v>830544470.6809145</v>
       </c>
     </row>
     <row r="76">
@@ -2562,18 +2562,18 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>827402248.4369071</v>
+        <v>826459057.647656</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>the graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2582,26 +2582,26 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9775189789.318211</v>
+        <v>12072738</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>811294638.1934762</v>
+        <v>823170158.1293001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4882361111</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2618,18 +2618,18 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>806429664.2882833</v>
+        <v>818662663.1281989</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2638,26 +2638,26 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>12072738</v>
+        <v>9775189789.318211</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>800796059.1185056</v>
+        <v>803987176.054563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2666,26 +2666,26 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>60983663777.01</v>
+        <v>4882361111</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>790584621.3156202</v>
+        <v>802491995.0196371</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tether gold</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2694,15 +2694,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>246524</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>781997690.0747724</v>
+        <v>793778552.6324067</v>
       </c>
     </row>
     <row r="82">
@@ -2730,18 +2730,18 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>774262814.1280754</v>
+        <v>779391668.7351254</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2750,26 +2750,26 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>739265391.674938</v>
+        <v>246524</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>737713939.0131669</v>
+        <v>770886899.9651258</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2778,26 +2778,26 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>897877243.8587133</v>
+        <v>758451321.504411</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>736136852.886333</v>
+        <v>758382202.9796824</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2806,26 +2806,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>107480000</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>706996649.343044</v>
+        <v>745884760.9490639</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2834,26 +2834,26 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1037550271.786468</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>671528079.5623716</v>
+        <v>682184567.3456371</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2862,26 +2862,26 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>646145839.5746847</v>
+        <v>1310525529</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>670432227.1842363</v>
+        <v>675509751.865934</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2890,26 +2890,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>210371.22</v>
+        <v>1037633158.106399</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>667778818.3984549</v>
+        <v>672914491.5901417</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2918,26 +2918,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>311886262.1</v>
+        <v>210371.22</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>654917431.1518688</v>
+        <v>656348326.5746477</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2946,26 +2946,26 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1308683113</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>646436402.9773983</v>
+        <v>653018119.2961475</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2974,26 +2974,26 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2481357126.223322</v>
+        <v>43820741411.30103</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>640375514.1572475</v>
+        <v>652003869.6162957</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3002,26 +3002,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>43804947221.80908</v>
+        <v>107480000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>634539418.3257244</v>
+        <v>648724459.8652017</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3030,26 +3030,26 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>986061142857000</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>623368561.8335109</v>
+        <v>647815934.4841284</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3058,26 +3058,26 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>15886821</v>
+        <v>312629902</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>620064789.6743512</v>
+        <v>619303950.9717766</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3086,26 +3086,26 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5966455361.82</v>
+        <v>986061142857000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>614087519.9211075</v>
+        <v>618835633.1392488</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3114,15 +3114,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>19846218.75</v>
+        <v>15886821</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>607687878.8539023</v>
+        <v>617493289.6408389</v>
       </c>
     </row>
     <row r="97">
@@ -3150,18 +3150,18 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>601775482.3818355</v>
+        <v>607985183.6533706</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3170,26 +3170,26 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1574016688.191111</v>
+        <v>19846700</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>580342144.3433431</v>
+        <v>605766754.4992813</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3198,15 +3198,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>290814662.067804</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>551352890.8105441</v>
+        <v>581279954.32868</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>537733564.046931</v>
+        <v>536484366.6070729</v>
       </c>
     </row>
     <row r="101">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>295394509.7510309</v>
+        <v>295589394.879398</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>534180343.4006736</v>
+        <v>534145750.3932222</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1645455068329.599</v>
+        <v>1646598735231.417</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>217347221316.2245</v>
+        <v>216950970985.5372</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144232177004.9569</v>
+        <v>144167887216.4139</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>119781574734.2609</v>
+        <v>120175935170.5374</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85245710974.68388</v>
+        <v>85330557169.34145</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60787223223.35472</v>
+        <v>60828634979.1779</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>59430679232.17687</v>
+        <v>59533179397.05877</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24022255961.98788</v>
+        <v>24087585742.23228</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22833704989.2944</v>
+        <v>22907170408.59418</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22679918094.50926</v>
+        <v>22706495702.73655</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9374205.46261983</v>
+        <v>9374253.737797299</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16853468197.57886</v>
+        <v>16837482100.90499</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10659287443.14686</v>
+        <v>10657415753.52441</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8801225034.959442</v>
+        <v>8800913359.149023</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8694959472.116371</v>
+        <v>8721616735.176374</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8388795396.303823</v>
+        <v>8403976328.942166</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7982481164.935516</v>
+        <v>8010382263.904924</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7507349560.392557</v>
+        <v>7513765081.376249</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7190619044.423847</v>
+        <v>7195598533.846197</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7149207058.835785</v>
+        <v>7159684628.490468</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6769945155.097817</v>
+        <v>6774138057.537104</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6276792885.955726</v>
+        <v>6297023774.210812</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6196028586.126849</v>
+        <v>6191043531.272076</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6122622118.242289</v>
+        <v>6129985585.660106</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6087581874.875412</v>
+        <v>6085601183.095393</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5981333587.628716</v>
+        <v>5987629528.959108</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5406915597.290776</v>
+        <v>5400664667.563888</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5384848075.618716</v>
+        <v>5381097135.256779</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5364447321.737244</v>
+        <v>5364279939.315865</v>
       </c>
     </row>
     <row r="30">
@@ -1274,18 +1274,18 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5249076389.421836</v>
+        <v>5248524751.149027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1294,26 +1294,26 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>333928180</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3945453821.585091</v>
+        <v>3952889456.807546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1322,15 +1322,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18446744.07370955</v>
+        <v>333928180</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3931065257.520929</v>
+        <v>3942293145.254296</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3826504636.55301</v>
+        <v>3802060652.464745</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3670315024.796194</v>
+        <v>3681192143.871577</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3027303615.549763</v>
+        <v>3036171573.969729</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2981082309.786353</v>
+        <v>2987845446.324038</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2828676423.398164</v>
+        <v>2833157119.960022</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2810953916.108098</v>
+        <v>2811123801.963756</v>
       </c>
     </row>
     <row r="39">
@@ -1526,18 +1526,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2591081900.313638</v>
+        <v>2586208908.081504</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>26571560696</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2510011282.610254</v>
+        <v>2509934872.143909</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3364694382.836841</v>
+        <v>26571560696</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2503052193.536201</v>
+        <v>2508854481.305764</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2477431953.28222</v>
+        <v>2478927769.463691</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2439870589.543532</v>
+        <v>2444652886.993679</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2351176923.70078</v>
+        <v>2351184089.48359</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2251930389.419629</v>
+        <v>2254443603.579769</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1976558181.292787</v>
+        <v>1978702466.497413</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1891153862.658108</v>
+        <v>1895039081.183438</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1888555568.331376</v>
+        <v>1886540877.231068</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1864437882.203944</v>
+        <v>1866661757.112612</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1846463934.590856</v>
+        <v>1846890920.009128</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1830111374.674361</v>
+        <v>1840368304.463784</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1758385592.36331</v>
+        <v>1761381396.987541</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1695536295.247552</v>
+        <v>1698217304.890254</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1672752758.847386</v>
+        <v>1676857733.536231</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1662776684.122552</v>
+        <v>1665964719.856101</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1655459686.522244</v>
+        <v>1655783569.038651</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1536756629.709208</v>
+        <v>1540096770.409258</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1428742696.010017</v>
+        <v>1433271486.071678</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1386303176.027496</v>
+        <v>1386990752.048404</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1324481806.397239</v>
+        <v>1313792591.457205</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1285356232.028005</v>
+        <v>1286879157.824451</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1250463475.41805</v>
+        <v>1246753450.860751</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1133837952.119644</v>
+        <v>1137944283.31947</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1092145367.243447</v>
+        <v>1094048852.565082</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1089463831.667597</v>
+        <v>1091583832.133298</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1086778652.242712</v>
+        <v>1088034541.022287</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1047134886.01604</v>
+        <v>1051758568.414132</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1036395025.000629</v>
+        <v>1042373555.02302</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>955007735.6766</v>
+        <v>957543131.8998387</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>954913424.4212536</v>
+        <v>952334860.657215</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>929076727.5117805</v>
+        <v>931258904.8206109</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>883431904.5986801</v>
+        <v>882723897.8018025</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>848821198.1726248</v>
+        <v>850694144.3058498</v>
       </c>
     </row>
     <row r="74">
@@ -2506,18 +2506,18 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>843387801.7890285</v>
+        <v>843406096.0131915</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2526,26 +2526,26 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>381867255.144574</v>
+        <v>98970935.41</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>830544470.6809145</v>
+        <v>830844404.7240243</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2554,15 +2554,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>98970935.41</v>
+        <v>381867255.144574</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>826459057.647656</v>
+        <v>829706005.3515067</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>823170158.1293001</v>
+        <v>824480212.14785</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>818662663.1281989</v>
+        <v>820486481.2163347</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>803987176.054563</v>
+        <v>805832036.9772431</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>802491995.0196371</v>
+        <v>805652785.9603587</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>793778552.6324067</v>
+        <v>794664818.6886672</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>779391668.7351254</v>
+        <v>781445825.702072</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>770886899.9651258</v>
+        <v>770838100.0799955</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>758382202.9796824</v>
+        <v>757701482.3358722</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>745884760.9490639</v>
+        <v>747448705.8206316</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>682184567.3456371</v>
+        <v>681698637.0396736</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>675509751.865934</v>
+        <v>680596986.34711</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>672914491.5901417</v>
+        <v>674734612.2559657</v>
       </c>
     </row>
     <row r="89">
@@ -2926,18 +2926,18 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>656348326.5746477</v>
+        <v>656166222.6006479</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2946,26 +2946,26 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5966455361.82</v>
+        <v>43820741411.30103</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>653018119.2961475</v>
+        <v>652769598.9738292</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2974,26 +2974,26 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>43820741411.30103</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>652003869.6162957</v>
+        <v>651584475.9770766</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3002,26 +3002,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>107480000</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>648724459.8652017</v>
+        <v>649486304.218258</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3030,15 +3030,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2481357126.223322</v>
+        <v>107480000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>647815934.4841284</v>
+        <v>647760253.0012007</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>619303950.9717766</v>
+        <v>619351409.6742076</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>618835633.1392488</v>
+        <v>618858681.5296142</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>617493289.6408389</v>
+        <v>617379057.857505</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>607985183.6533706</v>
+        <v>608853422.7302326</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>605766754.4992813</v>
+        <v>606575928.6660298</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>581279954.32868</v>
+        <v>582062382.8490387</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>536484366.6070729</v>
+        <v>536249794.0901753</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>534145750.3932222</v>
+        <v>534658843.8775095</v>
       </c>
     </row>
   </sheetData>
